--- a/tecto2umr/byt.xlsx
+++ b/tecto2umr/byt.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopatkova\SVN\GitHub-UMR\tecto2umr\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -13106,7 +13101,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13840,12 +13835,15 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="2" builtinId="8"/>
+    <cellStyle name="Kontrolní buňka" xfId="3" builtinId="23"/>
+    <cellStyle name="Neutrální" xfId="1" builtinId="28"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14122,7 +14120,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14130,13 +14128,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U787"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:A89"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14195,7 +14192,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="168" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="168" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="117" t="s">
         <v>0</v>
       </c>
@@ -14236,7 +14233,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:21" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="117"/>
       <c r="B3" s="143" t="s">
         <v>1</v>
@@ -14269,7 +14266,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="117"/>
       <c r="B4" s="143" t="s">
         <v>2</v>
@@ -14302,7 +14299,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="117"/>
       <c r="B5" s="144" t="s">
         <v>3</v>
@@ -14333,7 +14330,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:21" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="139"/>
       <c r="B6" s="143"/>
       <c r="C6" s="157"/>
@@ -14360,7 +14357,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="196.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="120" t="s">
         <v>4</v>
       </c>
@@ -14405,7 +14402,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" ht="78" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="120"/>
       <c r="B8" s="146" t="s">
         <v>5</v>
@@ -14437,7 +14434,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" ht="65.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="120"/>
       <c r="B9" s="143" t="s">
         <v>6</v>
@@ -14472,7 +14469,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="120"/>
       <c r="B10" s="143" t="s">
         <v>7</v>
@@ -14506,7 +14503,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="120"/>
       <c r="B11" s="143"/>
       <c r="C11" s="157"/>
@@ -14533,7 +14530,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="117" t="s">
         <v>8</v>
       </c>
@@ -14571,7 +14568,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="117"/>
       <c r="B13" s="143" t="s">
         <v>9</v>
@@ -14607,7 +14604,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="1:21" ht="52.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="117"/>
       <c r="B14" s="143" t="s">
         <v>6</v>
@@ -14641,7 +14638,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="117"/>
       <c r="B15" s="143" t="s">
         <v>10</v>
@@ -14675,7 +14672,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="117"/>
       <c r="B16" s="143"/>
       <c r="C16" s="157"/>
@@ -14702,7 +14699,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="61.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="117" t="s">
         <v>11</v>
       </c>
@@ -14740,7 +14737,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="117"/>
       <c r="B18" s="143" t="s">
         <v>12</v>
@@ -14774,7 +14771,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="1:21" ht="39.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="117"/>
       <c r="B19" s="143" t="s">
         <v>13</v>
@@ -14808,7 +14805,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="1:21" ht="52.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="117"/>
       <c r="B20" s="144" t="s">
         <v>14</v>
@@ -14842,7 +14839,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="117"/>
       <c r="B21" s="143"/>
       <c r="C21" s="157"/>
@@ -14869,7 +14866,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="141.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="117" t="s">
         <v>17</v>
       </c>
@@ -14916,7 +14913,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:21" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="117"/>
       <c r="B23" s="143" t="s">
         <v>5</v>
@@ -14951,7 +14948,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21" ht="39.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="117"/>
       <c r="B24" s="143" t="s">
         <v>18</v>
@@ -14986,7 +14983,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="117"/>
       <c r="B25" s="143"/>
       <c r="C25" s="157"/>
@@ -15013,7 +15010,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" ht="78" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="120" t="s">
         <v>19</v>
       </c>
@@ -15060,7 +15057,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="120"/>
       <c r="B27" s="143" t="s">
         <v>9</v>
@@ -15095,7 +15092,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="120"/>
       <c r="B28" s="143" t="s">
         <v>6</v>
@@ -15130,7 +15127,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="120"/>
       <c r="B29" s="143"/>
       <c r="C29" s="157"/>
@@ -15157,7 +15154,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" ht="371.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="120" t="s">
         <v>20</v>
       </c>
@@ -15189,7 +15186,7 @@
       <c r="K30" s="143" t="s">
         <v>629</v>
       </c>
-      <c r="L30" s="112" t="s">
+      <c r="L30" s="253" t="s">
         <v>1688</v>
       </c>
       <c r="M30" s="1"/>
@@ -15202,7 +15199,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:21" ht="39.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="120"/>
       <c r="B31" s="144" t="s">
         <v>21</v>
@@ -15237,7 +15234,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="1:21" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="120"/>
       <c r="B32" s="144" t="s">
         <v>22</v>
@@ -15270,7 +15267,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="141"/>
       <c r="B33" s="143"/>
       <c r="C33" s="157"/>
@@ -15297,7 +15294,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" ht="39.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="117" t="s">
         <v>24</v>
       </c>
@@ -15336,7 +15333,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="117"/>
       <c r="B35" s="143" t="s">
         <v>5</v>
@@ -15371,7 +15368,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="117"/>
       <c r="B36" s="143" t="s">
         <v>25</v>
@@ -15406,7 +15403,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="117"/>
       <c r="B37" s="143"/>
       <c r="C37" s="157"/>
@@ -15433,7 +15430,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="117" t="s">
         <v>26</v>
       </c>
@@ -15472,7 +15469,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="117"/>
       <c r="B39" s="143" t="s">
         <v>9</v>
@@ -15505,7 +15502,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="1:21" ht="78" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="117"/>
       <c r="B40" s="143" t="s">
         <v>27</v>
@@ -15542,7 +15539,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="117"/>
       <c r="B41" s="143"/>
       <c r="C41" s="157"/>
@@ -15569,7 +15566,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" ht="31.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="117" t="s">
         <v>28</v>
       </c>
@@ -15608,7 +15605,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="117"/>
       <c r="B43" s="143" t="s">
         <v>29</v>
@@ -15641,7 +15638,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="117"/>
       <c r="B44" s="143" t="s">
         <v>30</v>
@@ -15674,7 +15671,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="117"/>
       <c r="B45" s="143"/>
       <c r="C45" s="157"/>
@@ -15701,7 +15698,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" ht="409.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="120" t="s">
         <v>31</v>
       </c>
@@ -15746,7 +15743,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="117"/>
       <c r="B47" s="144" t="s">
         <v>32</v>
@@ -15778,7 +15775,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="117"/>
       <c r="B48" s="143"/>
       <c r="C48" s="157"/>
@@ -15805,7 +15802,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:21" ht="255" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="255" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="120" t="s">
         <v>33</v>
       </c>
@@ -15847,7 +15844,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="120"/>
       <c r="B50" s="143" t="s">
         <v>34</v>
@@ -15879,7 +15876,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="120"/>
       <c r="B51" s="143"/>
       <c r="C51" s="157"/>
@@ -15906,7 +15903,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="1:21" ht="39.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="120" t="s">
         <v>35</v>
       </c>
@@ -15947,7 +15944,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="120"/>
       <c r="B53" s="143" t="s">
         <v>37</v>
@@ -15982,7 +15979,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="120"/>
       <c r="B54" s="143"/>
       <c r="C54" s="157"/>
@@ -16009,7 +16006,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="1:21" ht="141.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="120" t="s">
         <v>38</v>
       </c>
@@ -16052,7 +16049,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="120"/>
       <c r="B56" s="143" t="s">
         <v>39</v>
@@ -16089,7 +16086,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="120"/>
       <c r="B57" s="143"/>
       <c r="C57" s="157"/>
@@ -16116,7 +16113,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="1:21" ht="181.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="120" t="s">
         <v>40</v>
       </c>
@@ -16161,7 +16158,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="1:21" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="120"/>
       <c r="B59" s="143" t="s">
         <v>41</v>
@@ -16198,7 +16195,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="120"/>
       <c r="B60" s="143"/>
       <c r="C60" s="157"/>
@@ -16225,7 +16222,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="1:21" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="120" t="s">
         <v>42</v>
       </c>
@@ -16268,7 +16265,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="1:21" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="117"/>
       <c r="B62" s="143" t="s">
         <v>43</v>
@@ -16305,7 +16302,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="117"/>
       <c r="B63" s="143"/>
       <c r="C63" s="157"/>
@@ -16332,7 +16329,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:21" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="212" t="s">
         <v>44</v>
       </c>
@@ -16375,7 +16372,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="5"/>
     </row>
-    <row r="65" spans="1:21" ht="76.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="120"/>
       <c r="B65" s="143" t="s">
         <v>45</v>
@@ -16414,7 +16411,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="5"/>
     </row>
-    <row r="66" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="120"/>
       <c r="B66" s="143" t="s">
         <v>46</v>
@@ -16453,7 +16450,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="5"/>
     </row>
-    <row r="67" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="120"/>
       <c r="B67" s="143" t="s">
         <v>47</v>
@@ -16492,7 +16489,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="5"/>
     </row>
-    <row r="68" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="120"/>
       <c r="B68" s="143" t="s">
         <v>48</v>
@@ -16531,7 +16528,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="5"/>
     </row>
-    <row r="69" spans="1:21" ht="39.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="120"/>
       <c r="B69" s="143" t="s">
         <v>49</v>
@@ -16570,7 +16567,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="5"/>
     </row>
-    <row r="70" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="120"/>
       <c r="B70" s="143" t="s">
         <v>50</v>
@@ -16609,7 +16606,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="5"/>
     </row>
-    <row r="71" spans="1:21" ht="27" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="120"/>
       <c r="B71" s="143"/>
       <c r="C71" s="157"/>
@@ -16636,7 +16633,7 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:21" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="120" t="s">
         <v>51</v>
       </c>
@@ -17272,7 +17269,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="38" t="s">
         <v>65</v>
       </c>
@@ -17301,7 +17298,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="5"/>
     </row>
-    <row r="91" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="139" t="s">
         <v>5</v>
@@ -17328,7 +17325,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="5"/>
     </row>
-    <row r="92" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="B92" s="38" t="s">
         <v>67</v>
@@ -17355,7 +17352,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="5"/>
     </row>
-    <row r="93" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="38"/>
       <c r="B93" s="139" t="s">
         <v>68</v>
@@ -17382,7 +17379,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="5"/>
     </row>
-    <row r="94" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
       <c r="B94" s="139" t="s">
         <v>69</v>
@@ -17409,7 +17406,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="5"/>
     </row>
-    <row r="95" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="139"/>
       <c r="B95" s="139"/>
       <c r="C95" s="15"/>
@@ -17434,7 +17431,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="38" t="s">
         <v>70</v>
       </c>
@@ -17463,7 +17460,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="5"/>
     </row>
-    <row r="97" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="38"/>
       <c r="B97" s="139" t="s">
         <v>5</v>
@@ -17490,7 +17487,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="5"/>
     </row>
-    <row r="98" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="38"/>
       <c r="B98" s="38" t="s">
         <v>72</v>
@@ -17517,7 +17514,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="5"/>
     </row>
-    <row r="99" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="38"/>
       <c r="B99" s="139" t="s">
         <v>73</v>
@@ -17544,7 +17541,7 @@
       <c r="T99" s="1"/>
       <c r="U99" s="5"/>
     </row>
-    <row r="100" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="139"/>
       <c r="B100" s="139"/>
       <c r="C100" s="15"/>
@@ -17569,7 +17566,7 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="38" t="s">
         <v>74</v>
       </c>
@@ -17602,7 +17599,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="5"/>
     </row>
-    <row r="102" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="38"/>
       <c r="B102" s="139" t="s">
         <v>5</v>
@@ -17633,7 +17630,7 @@
       <c r="T102" s="1"/>
       <c r="U102" s="5"/>
     </row>
-    <row r="103" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="38"/>
       <c r="B103" s="38" t="s">
         <v>78</v>
@@ -17660,7 +17657,7 @@
       <c r="T103" s="1"/>
       <c r="U103" s="5"/>
     </row>
-    <row r="104" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="38"/>
       <c r="B104" s="139" t="s">
         <v>73</v>
@@ -17691,7 +17688,7 @@
       <c r="T104" s="1"/>
       <c r="U104" s="5"/>
     </row>
-    <row r="105" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="139"/>
       <c r="B105" s="139"/>
       <c r="C105" s="15"/>
@@ -17716,7 +17713,7 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="38" t="s">
         <v>80</v>
       </c>
@@ -17745,7 +17742,7 @@
       <c r="T106" s="1"/>
       <c r="U106" s="5"/>
     </row>
-    <row r="107" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="38"/>
       <c r="B107" s="139" t="s">
         <v>5</v>
@@ -17772,7 +17769,7 @@
       <c r="T107" s="1"/>
       <c r="U107" s="5"/>
     </row>
-    <row r="108" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="38"/>
       <c r="B108" s="38" t="s">
         <v>82</v>
@@ -17799,7 +17796,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="5"/>
     </row>
-    <row r="109" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="38"/>
       <c r="B109" s="139" t="s">
         <v>83</v>
@@ -17826,7 +17823,7 @@
       <c r="T109" s="1"/>
       <c r="U109" s="5"/>
     </row>
-    <row r="110" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="139"/>
       <c r="B110" s="139"/>
       <c r="C110" s="15"/>
@@ -17851,7 +17848,7 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="38" t="s">
         <v>84</v>
       </c>
@@ -17880,7 +17877,7 @@
       <c r="T111" s="1"/>
       <c r="U111" s="5"/>
     </row>
-    <row r="112" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="38"/>
       <c r="B112" s="139" t="s">
         <v>5</v>
@@ -17907,7 +17904,7 @@
       <c r="T112" s="1"/>
       <c r="U112" s="5"/>
     </row>
-    <row r="113" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="38"/>
       <c r="B113" s="239" t="s">
         <v>86</v>
@@ -17934,7 +17931,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="5"/>
     </row>
-    <row r="114" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="38"/>
       <c r="B114" s="139" t="s">
         <v>18</v>
@@ -17961,7 +17958,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="5"/>
     </row>
-    <row r="115" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="139"/>
       <c r="B115" s="139"/>
       <c r="C115" s="15"/>
@@ -17986,7 +17983,7 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="38" t="s">
         <v>87</v>
       </c>
@@ -18015,7 +18012,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="5"/>
     </row>
-    <row r="117" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="38"/>
       <c r="B117" s="139" t="s">
         <v>5</v>
@@ -18042,7 +18039,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="5"/>
     </row>
-    <row r="118" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="38"/>
       <c r="B118" s="38" t="s">
         <v>89</v>
@@ -18069,7 +18066,7 @@
       <c r="T118" s="1"/>
       <c r="U118" s="5"/>
     </row>
-    <row r="119" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="38"/>
       <c r="B119" s="139" t="s">
         <v>90</v>
@@ -18096,7 +18093,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="5"/>
     </row>
-    <row r="120" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="139"/>
       <c r="B120" s="139"/>
       <c r="C120" s="15"/>
@@ -18121,7 +18118,7 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="38" t="s">
         <v>91</v>
       </c>
@@ -18150,7 +18147,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="5"/>
     </row>
-    <row r="122" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="38"/>
       <c r="B122" s="139" t="s">
         <v>5</v>
@@ -18177,7 +18174,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="5"/>
     </row>
-    <row r="123" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="38"/>
       <c r="B123" s="239" t="s">
         <v>93</v>
@@ -18204,7 +18201,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="5"/>
     </row>
-    <row r="124" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="38"/>
       <c r="B124" s="139" t="s">
         <v>94</v>
@@ -18231,7 +18228,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="5"/>
     </row>
-    <row r="125" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="139"/>
       <c r="B125" s="139"/>
       <c r="C125" s="15"/>
@@ -18256,7 +18253,7 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="38" t="s">
         <v>95</v>
       </c>
@@ -18285,7 +18282,7 @@
       <c r="T126" s="1"/>
       <c r="U126" s="5"/>
     </row>
-    <row r="127" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="38"/>
       <c r="B127" s="139" t="s">
         <v>5</v>
@@ -18312,7 +18309,7 @@
       <c r="T127" s="1"/>
       <c r="U127" s="5"/>
     </row>
-    <row r="128" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="38"/>
       <c r="B128" s="38" t="s">
         <v>97</v>
@@ -18339,7 +18336,7 @@
       <c r="T128" s="1"/>
       <c r="U128" s="5"/>
     </row>
-    <row r="129" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="38"/>
       <c r="B129" s="139" t="s">
         <v>83</v>
@@ -18366,7 +18363,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="5"/>
     </row>
-    <row r="130" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="139"/>
       <c r="B130" s="139"/>
       <c r="C130" s="15"/>
@@ -18391,7 +18388,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="38" t="s">
         <v>98</v>
       </c>
@@ -18420,7 +18417,7 @@
       <c r="T131" s="1"/>
       <c r="U131" s="5"/>
     </row>
-    <row r="132" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="38"/>
       <c r="B132" s="139" t="s">
         <v>100</v>
@@ -18447,7 +18444,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="5"/>
     </row>
-    <row r="133" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="38"/>
       <c r="B133" s="239" t="s">
         <v>101</v>
@@ -18474,7 +18471,7 @@
       <c r="T133" s="1"/>
       <c r="U133" s="5"/>
     </row>
-    <row r="134" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="38"/>
       <c r="B134" s="139" t="s">
         <v>102</v>
@@ -18501,7 +18498,7 @@
       <c r="T134" s="1"/>
       <c r="U134" s="5"/>
     </row>
-    <row r="135" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="139"/>
       <c r="B135" s="139"/>
       <c r="C135" s="15"/>
@@ -18526,7 +18523,7 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="38" t="s">
         <v>103</v>
       </c>
@@ -18559,7 +18556,7 @@
       <c r="T136" s="1"/>
       <c r="U136" s="5"/>
     </row>
-    <row r="137" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="38"/>
       <c r="B137" s="139" t="s">
         <v>5</v>
@@ -18590,7 +18587,7 @@
       <c r="T137" s="1"/>
       <c r="U137" s="5"/>
     </row>
-    <row r="138" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="38"/>
       <c r="B138" s="239" t="s">
         <v>107</v>
@@ -18617,7 +18614,7 @@
       <c r="T138" s="1"/>
       <c r="U138" s="5"/>
     </row>
-    <row r="139" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="38"/>
       <c r="B139" s="139" t="s">
         <v>108</v>
@@ -18648,7 +18645,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="5"/>
     </row>
-    <row r="140" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="139"/>
       <c r="B140" s="139"/>
       <c r="C140" s="15"/>
@@ -18673,7 +18670,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="38" t="s">
         <v>103</v>
       </c>
@@ -18706,7 +18703,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="5"/>
     </row>
-    <row r="142" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="38"/>
       <c r="B142" s="139" t="s">
         <v>5</v>
@@ -18737,7 +18734,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="5"/>
     </row>
-    <row r="143" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="38"/>
       <c r="B143" s="239" t="s">
         <v>107</v>
@@ -18764,7 +18761,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="5"/>
     </row>
-    <row r="144" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="38"/>
       <c r="B144" s="139" t="s">
         <v>108</v>
@@ -18795,7 +18792,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="5"/>
     </row>
-    <row r="145" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="139"/>
       <c r="B145" s="139"/>
       <c r="C145" s="15"/>
@@ -18820,7 +18817,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="38" t="s">
         <v>113</v>
       </c>
@@ -18853,7 +18850,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="5"/>
     </row>
-    <row r="147" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="38"/>
       <c r="B147" s="139" t="s">
         <v>5</v>
@@ -18884,7 +18881,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="5"/>
     </row>
-    <row r="148" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="38"/>
       <c r="B148" s="38" t="s">
         <v>116</v>
@@ -18911,7 +18908,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="5"/>
     </row>
-    <row r="149" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="38"/>
       <c r="B149" s="139" t="s">
         <v>27</v>
@@ -18942,7 +18939,7 @@
       <c r="T149" s="1"/>
       <c r="U149" s="5"/>
     </row>
-    <row r="150" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="139"/>
       <c r="B150" s="139"/>
       <c r="C150" s="15"/>
@@ -18967,7 +18964,7 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="38" t="s">
         <v>118</v>
       </c>
@@ -18996,7 +18993,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="5"/>
     </row>
-    <row r="152" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="38"/>
       <c r="B152" s="139" t="s">
         <v>37</v>
@@ -19023,7 +19020,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="5"/>
     </row>
-    <row r="153" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="38"/>
       <c r="B153" s="239" t="s">
         <v>120</v>
@@ -19050,7 +19047,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="5"/>
     </row>
-    <row r="154" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="38"/>
       <c r="B154" s="139" t="s">
         <v>30</v>
@@ -19077,7 +19074,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="5"/>
     </row>
-    <row r="155" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="139"/>
       <c r="B155" s="139"/>
       <c r="C155" s="15"/>
@@ -19102,7 +19099,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="38" t="s">
         <v>121</v>
       </c>
@@ -19131,7 +19128,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="5"/>
     </row>
-    <row r="157" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="38"/>
       <c r="B157" s="6" t="s">
         <v>123</v>
@@ -19158,7 +19155,7 @@
       <c r="T157" s="1"/>
       <c r="U157" s="5"/>
     </row>
-    <row r="158" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="38"/>
       <c r="B158" s="38" t="s">
         <v>124</v>
@@ -19185,7 +19182,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="5"/>
     </row>
-    <row r="159" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="38"/>
       <c r="B159" s="139" t="s">
         <v>30</v>
@@ -19212,7 +19209,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="5"/>
     </row>
-    <row r="160" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="139"/>
       <c r="B160" s="139"/>
       <c r="C160" s="15"/>
@@ -19237,7 +19234,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="38" t="s">
         <v>125</v>
       </c>
@@ -19266,7 +19263,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="5"/>
     </row>
-    <row r="162" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="38"/>
       <c r="B162" s="139" t="s">
         <v>127</v>
@@ -19293,7 +19290,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="5"/>
     </row>
-    <row r="163" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="38"/>
       <c r="B163" s="38" t="s">
         <v>128</v>
@@ -19320,7 +19317,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="5"/>
     </row>
-    <row r="164" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="38"/>
       <c r="B164" s="139" t="s">
         <v>30</v>
@@ -19347,7 +19344,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="5"/>
     </row>
-    <row r="165" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="139"/>
       <c r="B165" s="139"/>
       <c r="C165" s="15"/>
@@ -19372,7 +19369,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="38" t="s">
         <v>129</v>
       </c>
@@ -19401,7 +19398,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="5"/>
     </row>
-    <row r="167" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="38"/>
       <c r="B167" s="139" t="s">
         <v>131</v>
@@ -19428,7 +19425,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="5"/>
     </row>
-    <row r="168" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="38"/>
       <c r="B168" s="239" t="s">
         <v>132</v>
@@ -19455,7 +19452,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="5"/>
     </row>
-    <row r="169" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="139"/>
       <c r="B169" s="139"/>
       <c r="C169" s="15"/>
@@ -19480,7 +19477,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="38" t="s">
         <v>133</v>
       </c>
@@ -19509,7 +19506,7 @@
       <c r="T170" s="1"/>
       <c r="U170" s="5"/>
     </row>
-    <row r="171" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="38"/>
       <c r="B171" s="139" t="s">
         <v>135</v>
@@ -19536,7 +19533,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="5"/>
     </row>
-    <row r="172" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="38"/>
       <c r="B172" s="38" t="s">
         <v>136</v>
@@ -19563,7 +19560,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="5"/>
     </row>
-    <row r="173" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="139"/>
       <c r="B173" s="139"/>
       <c r="C173" s="15"/>
@@ -19588,7 +19585,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="38" t="s">
         <v>137</v>
       </c>
@@ -19617,7 +19614,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="5"/>
     </row>
-    <row r="175" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="38"/>
       <c r="B175" s="139" t="s">
         <v>139</v>
@@ -19644,7 +19641,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="5"/>
     </row>
-    <row r="176" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="38"/>
       <c r="B176" s="239" t="s">
         <v>140</v>
@@ -19671,7 +19668,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="5"/>
     </row>
-    <row r="177" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="139"/>
       <c r="B177" s="139"/>
       <c r="C177" s="15"/>
@@ -19696,7 +19693,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="38" t="s">
         <v>141</v>
       </c>
@@ -19725,7 +19722,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="5"/>
     </row>
-    <row r="179" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="38"/>
       <c r="B179" s="139" t="s">
         <v>12</v>
@@ -19752,7 +19749,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="5"/>
     </row>
-    <row r="180" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="38"/>
       <c r="B180" s="38" t="s">
         <v>143</v>
@@ -19779,7 +19776,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="5"/>
     </row>
-    <row r="181" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="139"/>
       <c r="B181" s="139"/>
       <c r="C181" s="15"/>
@@ -19804,7 +19801,7 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="38" t="s">
         <v>144</v>
       </c>
@@ -19833,7 +19830,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="5"/>
     </row>
-    <row r="183" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="38"/>
       <c r="B183" s="139" t="s">
         <v>5</v>
@@ -19860,7 +19857,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="5"/>
     </row>
-    <row r="184" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="38"/>
       <c r="B184" s="38" t="s">
         <v>146</v>
@@ -19887,7 +19884,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="5"/>
     </row>
-    <row r="185" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="139"/>
       <c r="B185" s="139"/>
       <c r="C185" s="15"/>
@@ -19912,7 +19909,7 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
     </row>
-    <row r="186" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="38" t="s">
         <v>147</v>
       </c>
@@ -19945,7 +19942,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="5"/>
     </row>
-    <row r="187" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="38"/>
       <c r="B187" s="139" t="s">
         <v>5</v>
@@ -19976,7 +19973,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="5"/>
     </row>
-    <row r="188" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="38"/>
       <c r="B188" s="239" t="s">
         <v>151</v>
@@ -20003,7 +20000,7 @@
       <c r="T188" s="1"/>
       <c r="U188" s="5"/>
     </row>
-    <row r="189" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="139"/>
       <c r="B189" s="139"/>
       <c r="C189" s="15"/>
@@ -20028,7 +20025,7 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
     </row>
-    <row r="190" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="38" t="s">
         <v>147</v>
       </c>
@@ -20061,7 +20058,7 @@
       <c r="T190" s="1"/>
       <c r="U190" s="5"/>
     </row>
-    <row r="191" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="38"/>
       <c r="B191" s="139" t="s">
         <v>5</v>
@@ -20092,7 +20089,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="5"/>
     </row>
-    <row r="192" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="38"/>
       <c r="B192" s="239" t="s">
         <v>151</v>
@@ -20119,7 +20116,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="5"/>
     </row>
-    <row r="193" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="139"/>
       <c r="B193" s="139"/>
       <c r="C193" s="15"/>
@@ -20144,7 +20141,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
     </row>
-    <row r="194" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="38" t="s">
         <v>153</v>
       </c>
@@ -20173,7 +20170,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="5"/>
     </row>
-    <row r="195" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="38"/>
       <c r="B195" s="139" t="s">
         <v>5</v>
@@ -20200,7 +20197,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="5"/>
     </row>
-    <row r="196" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="38"/>
       <c r="B196" s="239" t="s">
         <v>155</v>
@@ -20227,7 +20224,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="5"/>
     </row>
-    <row r="197" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="139"/>
       <c r="B197" s="139"/>
       <c r="C197" s="15"/>
@@ -20252,7 +20249,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
     </row>
-    <row r="198" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="38" t="s">
         <v>156</v>
       </c>
@@ -20281,7 +20278,7 @@
       <c r="T198" s="1"/>
       <c r="U198" s="5"/>
     </row>
-    <row r="199" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="38"/>
       <c r="B199" s="139" t="s">
         <v>5</v>
@@ -20308,7 +20305,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="5"/>
     </row>
-    <row r="200" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="38"/>
       <c r="B200" s="38" t="s">
         <v>158</v>
@@ -20335,7 +20332,7 @@
       <c r="T200" s="1"/>
       <c r="U200" s="5"/>
     </row>
-    <row r="201" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="139"/>
       <c r="B201" s="139"/>
       <c r="C201" s="15"/>
@@ -20360,7 +20357,7 @@
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
     </row>
-    <row r="202" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="38" t="s">
         <v>159</v>
       </c>
@@ -20389,7 +20386,7 @@
       <c r="T202" s="1"/>
       <c r="U202" s="5"/>
     </row>
-    <row r="203" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="38"/>
       <c r="B203" s="139" t="s">
         <v>5</v>
@@ -20416,7 +20413,7 @@
       <c r="T203" s="1"/>
       <c r="U203" s="5"/>
     </row>
-    <row r="204" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="38"/>
       <c r="B204" s="239" t="s">
         <v>161</v>
@@ -20443,7 +20440,7 @@
       <c r="T204" s="1"/>
       <c r="U204" s="5"/>
     </row>
-    <row r="205" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="139"/>
       <c r="B205" s="139"/>
       <c r="C205" s="15"/>
@@ -20468,7 +20465,7 @@
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
     </row>
-    <row r="206" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="38" t="s">
         <v>162</v>
       </c>
@@ -20497,7 +20494,7 @@
       <c r="T206" s="1"/>
       <c r="U206" s="5"/>
     </row>
-    <row r="207" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="38"/>
       <c r="B207" s="139" t="s">
         <v>5</v>
@@ -20524,7 +20521,7 @@
       <c r="T207" s="1"/>
       <c r="U207" s="5"/>
     </row>
-    <row r="208" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="38"/>
       <c r="B208" s="239" t="s">
         <v>164</v>
@@ -20551,7 +20548,7 @@
       <c r="T208" s="1"/>
       <c r="U208" s="5"/>
     </row>
-    <row r="209" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="139"/>
       <c r="B209" s="139"/>
       <c r="C209" s="15"/>
@@ -20576,7 +20573,7 @@
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
     </row>
-    <row r="210" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="38" t="s">
         <v>165</v>
       </c>
@@ -20605,7 +20602,7 @@
       <c r="T210" s="1"/>
       <c r="U210" s="5"/>
     </row>
-    <row r="211" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="38"/>
       <c r="B211" s="139" t="s">
         <v>5</v>
@@ -20632,7 +20629,7 @@
       <c r="T211" s="1"/>
       <c r="U211" s="5"/>
     </row>
-    <row r="212" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="38"/>
       <c r="B212" s="239" t="s">
         <v>167</v>
@@ -20659,7 +20656,7 @@
       <c r="T212" s="1"/>
       <c r="U212" s="5"/>
     </row>
-    <row r="213" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="139"/>
       <c r="B213" s="139"/>
       <c r="C213" s="15"/>
@@ -20684,7 +20681,7 @@
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
     </row>
-    <row r="214" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="38" t="s">
         <v>168</v>
       </c>
@@ -20713,7 +20710,7 @@
       <c r="T214" s="1"/>
       <c r="U214" s="5"/>
     </row>
-    <row r="215" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="38"/>
       <c r="B215" s="139" t="s">
         <v>5</v>
@@ -20740,7 +20737,7 @@
       <c r="T215" s="1"/>
       <c r="U215" s="5"/>
     </row>
-    <row r="216" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="38"/>
       <c r="B216" s="38" t="s">
         <v>170</v>
@@ -20767,7 +20764,7 @@
       <c r="T216" s="1"/>
       <c r="U216" s="5"/>
     </row>
-    <row r="217" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="139"/>
       <c r="B217" s="139"/>
       <c r="C217" s="15"/>
@@ -20792,7 +20789,7 @@
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
     </row>
-    <row r="218" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="38" t="s">
         <v>171</v>
       </c>
@@ -20825,7 +20822,7 @@
       <c r="T218" s="1"/>
       <c r="U218" s="5"/>
     </row>
-    <row r="219" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="38"/>
       <c r="B219" s="139" t="s">
         <v>5</v>
@@ -20856,7 +20853,7 @@
       <c r="T219" s="1"/>
       <c r="U219" s="5"/>
     </row>
-    <row r="220" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="38"/>
       <c r="B220" s="38" t="s">
         <v>173</v>
@@ -20883,7 +20880,7 @@
       <c r="T220" s="1"/>
       <c r="U220" s="5"/>
     </row>
-    <row r="221" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="139"/>
       <c r="B221" s="139"/>
       <c r="C221" s="15"/>
@@ -20908,7 +20905,7 @@
       <c r="T221" s="1"/>
       <c r="U221" s="1"/>
     </row>
-    <row r="222" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="38" t="s">
         <v>174</v>
       </c>
@@ -20937,7 +20934,7 @@
       <c r="T222" s="1"/>
       <c r="U222" s="5"/>
     </row>
-    <row r="223" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="38"/>
       <c r="B223" s="139" t="s">
         <v>5</v>
@@ -20964,7 +20961,7 @@
       <c r="T223" s="1"/>
       <c r="U223" s="5"/>
     </row>
-    <row r="224" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="38"/>
       <c r="B224" s="38" t="s">
         <v>176</v>
@@ -20991,7 +20988,7 @@
       <c r="T224" s="1"/>
       <c r="U224" s="5"/>
     </row>
-    <row r="225" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="139"/>
       <c r="B225" s="139"/>
       <c r="C225" s="15"/>
@@ -21016,7 +21013,7 @@
       <c r="T225" s="1"/>
       <c r="U225" s="1"/>
     </row>
-    <row r="226" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="38" t="s">
         <v>177</v>
       </c>
@@ -21045,7 +21042,7 @@
       <c r="T226" s="1"/>
       <c r="U226" s="5"/>
     </row>
-    <row r="227" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="38"/>
       <c r="B227" s="139" t="s">
         <v>5</v>
@@ -21072,7 +21069,7 @@
       <c r="T227" s="1"/>
       <c r="U227" s="5"/>
     </row>
-    <row r="228" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="38"/>
       <c r="B228" s="239" t="s">
         <v>179</v>
@@ -21099,7 +21096,7 @@
       <c r="T228" s="1"/>
       <c r="U228" s="5"/>
     </row>
-    <row r="229" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="139"/>
       <c r="B229" s="139"/>
       <c r="C229" s="15"/>
@@ -21124,7 +21121,7 @@
       <c r="T229" s="1"/>
       <c r="U229" s="1"/>
     </row>
-    <row r="230" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="38" t="s">
         <v>180</v>
       </c>
@@ -21153,7 +21150,7 @@
       <c r="T230" s="1"/>
       <c r="U230" s="5"/>
     </row>
-    <row r="231" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="38"/>
       <c r="B231" s="139" t="s">
         <v>5</v>
@@ -21180,7 +21177,7 @@
       <c r="T231" s="1"/>
       <c r="U231" s="5"/>
     </row>
-    <row r="232" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="38"/>
       <c r="B232" s="239" t="s">
         <v>182</v>
@@ -21207,7 +21204,7 @@
       <c r="T232" s="1"/>
       <c r="U232" s="5"/>
     </row>
-    <row r="233" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="139"/>
       <c r="B233" s="139"/>
       <c r="C233" s="15"/>
@@ -21232,7 +21229,7 @@
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
     </row>
-    <row r="234" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="38" t="s">
         <v>183</v>
       </c>
@@ -21265,7 +21262,7 @@
       <c r="T234" s="1"/>
       <c r="U234" s="5"/>
     </row>
-    <row r="235" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="38"/>
       <c r="B235" s="139" t="s">
         <v>5</v>
@@ -21296,7 +21293,7 @@
       <c r="T235" s="1"/>
       <c r="U235" s="5"/>
     </row>
-    <row r="236" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="38"/>
       <c r="B236" s="239" t="s">
         <v>185</v>
@@ -21323,7 +21320,7 @@
       <c r="T236" s="1"/>
       <c r="U236" s="5"/>
     </row>
-    <row r="237" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="139"/>
       <c r="B237" s="139"/>
       <c r="C237" s="15"/>
@@ -21348,7 +21345,7 @@
       <c r="T237" s="1"/>
       <c r="U237" s="1"/>
     </row>
-    <row r="238" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="38" t="s">
         <v>186</v>
       </c>
@@ -21377,7 +21374,7 @@
       <c r="T238" s="1"/>
       <c r="U238" s="5"/>
     </row>
-    <row r="239" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="38"/>
       <c r="B239" s="139" t="s">
         <v>5</v>
@@ -21404,7 +21401,7 @@
       <c r="T239" s="1"/>
       <c r="U239" s="5"/>
     </row>
-    <row r="240" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="38"/>
       <c r="B240" s="38" t="s">
         <v>188</v>
@@ -21431,7 +21428,7 @@
       <c r="T240" s="1"/>
       <c r="U240" s="5"/>
     </row>
-    <row r="241" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="139"/>
       <c r="B241" s="139"/>
       <c r="C241" s="15"/>
@@ -21456,7 +21453,7 @@
       <c r="T241" s="1"/>
       <c r="U241" s="1"/>
     </row>
-    <row r="242" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="38" t="s">
         <v>189</v>
       </c>
@@ -21489,7 +21486,7 @@
       <c r="T242" s="1"/>
       <c r="U242" s="5"/>
     </row>
-    <row r="243" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="38"/>
       <c r="B243" s="139" t="s">
         <v>5</v>
@@ -21520,7 +21517,7 @@
       <c r="T243" s="1"/>
       <c r="U243" s="5"/>
     </row>
-    <row r="244" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="38"/>
       <c r="B244" s="38" t="s">
         <v>193</v>
@@ -21547,7 +21544,7 @@
       <c r="T244" s="1"/>
       <c r="U244" s="5"/>
     </row>
-    <row r="245" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="139"/>
       <c r="B245" s="139"/>
       <c r="C245" s="15"/>
@@ -21572,7 +21569,7 @@
       <c r="T245" s="1"/>
       <c r="U245" s="1"/>
     </row>
-    <row r="246" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="38" t="s">
         <v>189</v>
       </c>
@@ -21605,7 +21602,7 @@
       <c r="T246" s="1"/>
       <c r="U246" s="5"/>
     </row>
-    <row r="247" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="38"/>
       <c r="B247" s="139" t="s">
         <v>5</v>
@@ -21632,7 +21629,7 @@
       <c r="T247" s="1"/>
       <c r="U247" s="5"/>
     </row>
-    <row r="248" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="38"/>
       <c r="B248" s="38" t="s">
         <v>193</v>
@@ -21659,7 +21656,7 @@
       <c r="T248" s="1"/>
       <c r="U248" s="5"/>
     </row>
-    <row r="249" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="139"/>
       <c r="B249" s="139"/>
       <c r="C249" s="15"/>
@@ -21684,7 +21681,7 @@
       <c r="T249" s="1"/>
       <c r="U249" s="1"/>
     </row>
-    <row r="250" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="38" t="s">
         <v>194</v>
       </c>
@@ -21713,7 +21710,7 @@
       <c r="T250" s="1"/>
       <c r="U250" s="5"/>
     </row>
-    <row r="251" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="38"/>
       <c r="B251" s="139" t="s">
         <v>5</v>
@@ -21740,7 +21737,7 @@
       <c r="T251" s="1"/>
       <c r="U251" s="5"/>
     </row>
-    <row r="252" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="38"/>
       <c r="B252" s="38" t="s">
         <v>196</v>
@@ -21767,7 +21764,7 @@
       <c r="T252" s="1"/>
       <c r="U252" s="5"/>
     </row>
-    <row r="253" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="139"/>
       <c r="B253" s="139"/>
       <c r="C253" s="15"/>
@@ -21792,7 +21789,7 @@
       <c r="T253" s="1"/>
       <c r="U253" s="1"/>
     </row>
-    <row r="254" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="38" t="s">
         <v>197</v>
       </c>
@@ -21825,7 +21822,7 @@
       <c r="T254" s="1"/>
       <c r="U254" s="5"/>
     </row>
-    <row r="255" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="38"/>
       <c r="B255" s="139" t="s">
         <v>5</v>
@@ -21856,7 +21853,7 @@
       <c r="T255" s="1"/>
       <c r="U255" s="5"/>
     </row>
-    <row r="256" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="38"/>
       <c r="B256" s="38" t="s">
         <v>201</v>
@@ -21883,7 +21880,7 @@
       <c r="T256" s="1"/>
       <c r="U256" s="5"/>
     </row>
-    <row r="257" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="139"/>
       <c r="B257" s="139"/>
       <c r="C257" s="15"/>
@@ -21908,7 +21905,7 @@
       <c r="T257" s="1"/>
       <c r="U257" s="1"/>
     </row>
-    <row r="258" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="38" t="s">
         <v>197</v>
       </c>
@@ -21941,7 +21938,7 @@
       <c r="T258" s="1"/>
       <c r="U258" s="5"/>
     </row>
-    <row r="259" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="38"/>
       <c r="B259" s="139" t="s">
         <v>5</v>
@@ -21968,7 +21965,7 @@
       <c r="T259" s="1"/>
       <c r="U259" s="5"/>
     </row>
-    <row r="260" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="38"/>
       <c r="B260" s="38" t="s">
         <v>201</v>
@@ -21995,7 +21992,7 @@
       <c r="T260" s="1"/>
       <c r="U260" s="5"/>
     </row>
-    <row r="261" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="139"/>
       <c r="B261" s="139"/>
       <c r="C261" s="15"/>
@@ -22020,7 +22017,7 @@
       <c r="T261" s="1"/>
       <c r="U261" s="1"/>
     </row>
-    <row r="262" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="38" t="s">
         <v>202</v>
       </c>
@@ -22049,7 +22046,7 @@
       <c r="T262" s="1"/>
       <c r="U262" s="5"/>
     </row>
-    <row r="263" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="38"/>
       <c r="B263" s="139" t="s">
         <v>5</v>
@@ -22076,7 +22073,7 @@
       <c r="T263" s="1"/>
       <c r="U263" s="5"/>
     </row>
-    <row r="264" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="38"/>
       <c r="B264" s="38" t="s">
         <v>204</v>
@@ -22103,7 +22100,7 @@
       <c r="T264" s="1"/>
       <c r="U264" s="5"/>
     </row>
-    <row r="265" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="139"/>
       <c r="B265" s="139"/>
       <c r="C265" s="15"/>
@@ -22128,7 +22125,7 @@
       <c r="T265" s="1"/>
       <c r="U265" s="1"/>
     </row>
-    <row r="266" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="38" t="s">
         <v>205</v>
       </c>
@@ -22157,7 +22154,7 @@
       <c r="T266" s="1"/>
       <c r="U266" s="5"/>
     </row>
-    <row r="267" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="38"/>
       <c r="B267" s="139" t="s">
         <v>5</v>
@@ -22184,7 +22181,7 @@
       <c r="T267" s="1"/>
       <c r="U267" s="5"/>
     </row>
-    <row r="268" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="38"/>
       <c r="B268" s="38" t="s">
         <v>207</v>
@@ -22211,7 +22208,7 @@
       <c r="T268" s="1"/>
       <c r="U268" s="5"/>
     </row>
-    <row r="269" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="139"/>
       <c r="B269" s="139"/>
       <c r="C269" s="15"/>
@@ -22236,7 +22233,7 @@
       <c r="T269" s="1"/>
       <c r="U269" s="1"/>
     </row>
-    <row r="270" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="38" t="s">
         <v>208</v>
       </c>
@@ -22265,7 +22262,7 @@
       <c r="T270" s="1"/>
       <c r="U270" s="5"/>
     </row>
-    <row r="271" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="38"/>
       <c r="B271" s="139" t="s">
         <v>5</v>
@@ -22292,7 +22289,7 @@
       <c r="T271" s="1"/>
       <c r="U271" s="5"/>
     </row>
-    <row r="272" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="38"/>
       <c r="B272" s="38" t="s">
         <v>210</v>
@@ -22319,7 +22316,7 @@
       <c r="T272" s="1"/>
       <c r="U272" s="5"/>
     </row>
-    <row r="273" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="139"/>
       <c r="B273" s="139"/>
       <c r="C273" s="15"/>
@@ -22344,7 +22341,7 @@
       <c r="T273" s="1"/>
       <c r="U273" s="1"/>
     </row>
-    <row r="274" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="38" t="s">
         <v>211</v>
       </c>
@@ -22373,7 +22370,7 @@
       <c r="T274" s="1"/>
       <c r="U274" s="5"/>
     </row>
-    <row r="275" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="38"/>
       <c r="B275" s="139" t="s">
         <v>5</v>
@@ -22400,7 +22397,7 @@
       <c r="T275" s="1"/>
       <c r="U275" s="5"/>
     </row>
-    <row r="276" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="38"/>
       <c r="B276" s="38" t="s">
         <v>213</v>
@@ -22427,7 +22424,7 @@
       <c r="T276" s="1"/>
       <c r="U276" s="5"/>
     </row>
-    <row r="277" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="139"/>
       <c r="B277" s="139"/>
       <c r="C277" s="15"/>
@@ -22452,7 +22449,7 @@
       <c r="T277" s="1"/>
       <c r="U277" s="1"/>
     </row>
-    <row r="278" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="38" t="s">
         <v>214</v>
       </c>
@@ -22485,7 +22482,7 @@
       <c r="T278" s="1"/>
       <c r="U278" s="5"/>
     </row>
-    <row r="279" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="38"/>
       <c r="B279" s="139" t="s">
         <v>217</v>
@@ -22516,7 +22513,7 @@
       <c r="T279" s="1"/>
       <c r="U279" s="5"/>
     </row>
-    <row r="280" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="38"/>
       <c r="B280" s="239" t="s">
         <v>219</v>
@@ -22543,7 +22540,7 @@
       <c r="T280" s="1"/>
       <c r="U280" s="5"/>
     </row>
-    <row r="281" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="139"/>
       <c r="B281" s="139"/>
       <c r="C281" s="15"/>
@@ -22568,7 +22565,7 @@
       <c r="T281" s="1"/>
       <c r="U281" s="1"/>
     </row>
-    <row r="282" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="38" t="s">
         <v>220</v>
       </c>
@@ -22597,7 +22594,7 @@
       <c r="T282" s="1"/>
       <c r="U282" s="5"/>
     </row>
-    <row r="283" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="38"/>
       <c r="B283" s="139" t="s">
         <v>222</v>
@@ -22624,7 +22621,7 @@
       <c r="T283" s="1"/>
       <c r="U283" s="5"/>
     </row>
-    <row r="284" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="38"/>
       <c r="B284" s="38" t="s">
         <v>223</v>
@@ -22651,7 +22648,7 @@
       <c r="T284" s="1"/>
       <c r="U284" s="5"/>
     </row>
-    <row r="285" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="139"/>
       <c r="B285" s="139"/>
       <c r="C285" s="15"/>
@@ -22676,7 +22673,7 @@
       <c r="T285" s="1"/>
       <c r="U285" s="1"/>
     </row>
-    <row r="286" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="38" t="s">
         <v>224</v>
       </c>
@@ -22705,7 +22702,7 @@
       <c r="T286" s="1"/>
       <c r="U286" s="5"/>
     </row>
-    <row r="287" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="38"/>
       <c r="B287" s="139" t="s">
         <v>226</v>
@@ -22732,7 +22729,7 @@
       <c r="T287" s="1"/>
       <c r="U287" s="5"/>
     </row>
-    <row r="288" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="38"/>
       <c r="B288" s="38" t="s">
         <v>227</v>
@@ -22759,7 +22756,7 @@
       <c r="T288" s="1"/>
       <c r="U288" s="5"/>
     </row>
-    <row r="289" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="139"/>
       <c r="B289" s="139"/>
       <c r="C289" s="15"/>
@@ -22784,7 +22781,7 @@
       <c r="T289" s="1"/>
       <c r="U289" s="1"/>
     </row>
-    <row r="290" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="38" t="s">
         <v>228</v>
       </c>
@@ -22813,7 +22810,7 @@
       <c r="T290" s="1"/>
       <c r="U290" s="5"/>
     </row>
-    <row r="291" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="38"/>
       <c r="B291" s="139" t="s">
         <v>1</v>
@@ -22840,7 +22837,7 @@
       <c r="T291" s="1"/>
       <c r="U291" s="5"/>
     </row>
-    <row r="292" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="38"/>
       <c r="B292" s="38" t="s">
         <v>230</v>
@@ -22867,7 +22864,7 @@
       <c r="T292" s="1"/>
       <c r="U292" s="5"/>
     </row>
-    <row r="293" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="139"/>
       <c r="B293" s="139"/>
       <c r="C293" s="15"/>
@@ -22892,7 +22889,7 @@
       <c r="T293" s="1"/>
       <c r="U293" s="1"/>
     </row>
-    <row r="294" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="38" t="s">
         <v>231</v>
       </c>
@@ -22921,7 +22918,7 @@
       <c r="T294" s="1"/>
       <c r="U294" s="5"/>
     </row>
-    <row r="295" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="38"/>
       <c r="B295" s="139" t="s">
         <v>5</v>
@@ -22948,7 +22945,7 @@
       <c r="T295" s="1"/>
       <c r="U295" s="5"/>
     </row>
-    <row r="296" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="38"/>
       <c r="B296" s="38" t="s">
         <v>233</v>
@@ -22975,7 +22972,7 @@
       <c r="T296" s="1"/>
       <c r="U296" s="5"/>
     </row>
-    <row r="297" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="139"/>
       <c r="B297" s="139"/>
       <c r="C297" s="15"/>
@@ -23000,7 +22997,7 @@
       <c r="T297" s="1"/>
       <c r="U297" s="1"/>
     </row>
-    <row r="298" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="38" t="s">
         <v>234</v>
       </c>
@@ -23029,7 +23026,7 @@
       <c r="T298" s="1"/>
       <c r="U298" s="5"/>
     </row>
-    <row r="299" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="38"/>
       <c r="B299" s="139" t="s">
         <v>5</v>
@@ -23056,7 +23053,7 @@
       <c r="T299" s="1"/>
       <c r="U299" s="5"/>
     </row>
-    <row r="300" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="38"/>
       <c r="B300" s="239" t="s">
         <v>236</v>
@@ -23083,7 +23080,7 @@
       <c r="T300" s="1"/>
       <c r="U300" s="5"/>
     </row>
-    <row r="301" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="139"/>
       <c r="B301" s="139"/>
       <c r="C301" s="15"/>
@@ -23108,7 +23105,7 @@
       <c r="T301" s="1"/>
       <c r="U301" s="1"/>
     </row>
-    <row r="302" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="38" t="s">
         <v>237</v>
       </c>
@@ -23137,7 +23134,7 @@
       <c r="T302" s="1"/>
       <c r="U302" s="5"/>
     </row>
-    <row r="303" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="38"/>
       <c r="B303" s="139" t="s">
         <v>5</v>
@@ -23164,7 +23161,7 @@
       <c r="T303" s="1"/>
       <c r="U303" s="5"/>
     </row>
-    <row r="304" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="38"/>
       <c r="B304" s="38" t="s">
         <v>239</v>
@@ -23191,7 +23188,7 @@
       <c r="T304" s="1"/>
       <c r="U304" s="5"/>
     </row>
-    <row r="305" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="139"/>
       <c r="B305" s="139"/>
       <c r="C305" s="15"/>
@@ -23216,7 +23213,7 @@
       <c r="T305" s="1"/>
       <c r="U305" s="1"/>
     </row>
-    <row r="306" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="38" t="s">
         <v>240</v>
       </c>
@@ -23245,7 +23242,7 @@
       <c r="T306" s="1"/>
       <c r="U306" s="5"/>
     </row>
-    <row r="307" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="38"/>
       <c r="B307" s="139" t="s">
         <v>5</v>
@@ -23272,7 +23269,7 @@
       <c r="T307" s="1"/>
       <c r="U307" s="5"/>
     </row>
-    <row r="308" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="38"/>
       <c r="B308" s="239" t="s">
         <v>242</v>
@@ -23299,7 +23296,7 @@
       <c r="T308" s="1"/>
       <c r="U308" s="5"/>
     </row>
-    <row r="309" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="139"/>
       <c r="B309" s="139"/>
       <c r="C309" s="15"/>
@@ -23324,7 +23321,7 @@
       <c r="T309" s="1"/>
       <c r="U309" s="1"/>
     </row>
-    <row r="310" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="38" t="s">
         <v>243</v>
       </c>
@@ -23353,7 +23350,7 @@
       <c r="T310" s="1"/>
       <c r="U310" s="5"/>
     </row>
-    <row r="311" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="38"/>
       <c r="B311" s="139" t="s">
         <v>5</v>
@@ -23380,7 +23377,7 @@
       <c r="T311" s="1"/>
       <c r="U311" s="5"/>
     </row>
-    <row r="312" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="38"/>
       <c r="B312" s="38" t="s">
         <v>245</v>
@@ -23407,7 +23404,7 @@
       <c r="T312" s="1"/>
       <c r="U312" s="5"/>
     </row>
-    <row r="313" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="139"/>
       <c r="B313" s="139"/>
       <c r="C313" s="15"/>
@@ -23432,7 +23429,7 @@
       <c r="T313" s="1"/>
       <c r="U313" s="1"/>
     </row>
-    <row r="314" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="38" t="s">
         <v>246</v>
       </c>
@@ -23461,7 +23458,7 @@
       <c r="T314" s="1"/>
       <c r="U314" s="5"/>
     </row>
-    <row r="315" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="38"/>
       <c r="B315" s="139" t="s">
         <v>5</v>
@@ -23488,7 +23485,7 @@
       <c r="T315" s="1"/>
       <c r="U315" s="5"/>
     </row>
-    <row r="316" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="38"/>
       <c r="B316" s="239" t="s">
         <v>248</v>
@@ -23515,7 +23512,7 @@
       <c r="T316" s="1"/>
       <c r="U316" s="5"/>
     </row>
-    <row r="317" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="139"/>
       <c r="B317" s="139"/>
       <c r="C317" s="15"/>
@@ -23540,7 +23537,7 @@
       <c r="T317" s="1"/>
       <c r="U317" s="1"/>
     </row>
-    <row r="318" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="38" t="s">
         <v>249</v>
       </c>
@@ -23573,7 +23570,7 @@
       <c r="T318" s="1"/>
       <c r="U318" s="5"/>
     </row>
-    <row r="319" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="38"/>
       <c r="B319" s="139" t="s">
         <v>5</v>
@@ -23604,7 +23601,7 @@
       <c r="T319" s="1"/>
       <c r="U319" s="5"/>
     </row>
-    <row r="320" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="38"/>
       <c r="B320" s="38" t="s">
         <v>251</v>
@@ -23635,7 +23632,7 @@
       <c r="T320" s="1"/>
       <c r="U320" s="5"/>
     </row>
-    <row r="321" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="139"/>
       <c r="B321" s="139"/>
       <c r="C321" s="15"/>
@@ -23660,7 +23657,7 @@
       <c r="T321" s="1"/>
       <c r="U321" s="1"/>
     </row>
-    <row r="322" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="38" t="s">
         <v>253</v>
       </c>
@@ -23689,7 +23686,7 @@
       <c r="T322" s="1"/>
       <c r="U322" s="5"/>
     </row>
-    <row r="323" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="38"/>
       <c r="B323" s="139" t="s">
         <v>5</v>
@@ -23716,7 +23713,7 @@
       <c r="T323" s="1"/>
       <c r="U323" s="5"/>
     </row>
-    <row r="324" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="38"/>
       <c r="B324" s="239" t="s">
         <v>255</v>
@@ -23743,7 +23740,7 @@
       <c r="T324" s="1"/>
       <c r="U324" s="5"/>
     </row>
-    <row r="325" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="139"/>
       <c r="B325" s="139"/>
       <c r="C325" s="15"/>
@@ -23768,7 +23765,7 @@
       <c r="T325" s="1"/>
       <c r="U325" s="1"/>
     </row>
-    <row r="326" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="38" t="s">
         <v>256</v>
       </c>
@@ -23797,7 +23794,7 @@
       <c r="T326" s="1"/>
       <c r="U326" s="5"/>
     </row>
-    <row r="327" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="38"/>
       <c r="B327" s="139" t="s">
         <v>5</v>
@@ -23824,7 +23821,7 @@
       <c r="T327" s="1"/>
       <c r="U327" s="5"/>
     </row>
-    <row r="328" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="38"/>
       <c r="B328" s="239" t="s">
         <v>258</v>
@@ -23851,7 +23848,7 @@
       <c r="T328" s="1"/>
       <c r="U328" s="5"/>
     </row>
-    <row r="329" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="139"/>
       <c r="B329" s="139"/>
       <c r="C329" s="15"/>
@@ -23876,7 +23873,7 @@
       <c r="T329" s="1"/>
       <c r="U329" s="1"/>
     </row>
-    <row r="330" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="38" t="s">
         <v>259</v>
       </c>
@@ -23905,7 +23902,7 @@
       <c r="T330" s="1"/>
       <c r="U330" s="5"/>
     </row>
-    <row r="331" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="38"/>
       <c r="B331" s="139" t="s">
         <v>5</v>
@@ -23932,7 +23929,7 @@
       <c r="T331" s="1"/>
       <c r="U331" s="5"/>
     </row>
-    <row r="332" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="38"/>
       <c r="B332" s="38" t="s">
         <v>261</v>
@@ -23959,7 +23956,7 @@
       <c r="T332" s="1"/>
       <c r="U332" s="5"/>
     </row>
-    <row r="333" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="139"/>
       <c r="B333" s="139"/>
       <c r="C333" s="15"/>
@@ -23984,7 +23981,7 @@
       <c r="T333" s="1"/>
       <c r="U333" s="1"/>
     </row>
-    <row r="334" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="38" t="s">
         <v>262</v>
       </c>
@@ -24013,7 +24010,7 @@
       <c r="T334" s="1"/>
       <c r="U334" s="5"/>
     </row>
-    <row r="335" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="38"/>
       <c r="B335" s="139" t="s">
         <v>5</v>
@@ -24040,7 +24037,7 @@
       <c r="T335" s="1"/>
       <c r="U335" s="5"/>
     </row>
-    <row r="336" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="38"/>
       <c r="B336" s="38" t="s">
         <v>264</v>
@@ -24067,7 +24064,7 @@
       <c r="T336" s="1"/>
       <c r="U336" s="5"/>
     </row>
-    <row r="337" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="139"/>
       <c r="B337" s="139"/>
       <c r="C337" s="15"/>
@@ -24092,7 +24089,7 @@
       <c r="T337" s="1"/>
       <c r="U337" s="1"/>
     </row>
-    <row r="338" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="38" t="s">
         <v>265</v>
       </c>
@@ -24121,7 +24118,7 @@
       <c r="T338" s="1"/>
       <c r="U338" s="5"/>
     </row>
-    <row r="339" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="38"/>
       <c r="B339" s="139" t="s">
         <v>267</v>
@@ -24148,7 +24145,7 @@
       <c r="T339" s="1"/>
       <c r="U339" s="5"/>
     </row>
-    <row r="340" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="38"/>
       <c r="B340" s="38" t="s">
         <v>268</v>
@@ -24175,7 +24172,7 @@
       <c r="T340" s="1"/>
       <c r="U340" s="5"/>
     </row>
-    <row r="341" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="139"/>
       <c r="B341" s="139"/>
       <c r="C341" s="15"/>
@@ -24200,7 +24197,7 @@
       <c r="T341" s="1"/>
       <c r="U341" s="1"/>
     </row>
-    <row r="342" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="38" t="s">
         <v>269</v>
       </c>
@@ -24233,7 +24230,7 @@
       <c r="T342" s="1"/>
       <c r="U342" s="5"/>
     </row>
-    <row r="343" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="38"/>
       <c r="B343" s="139" t="s">
         <v>5</v>
@@ -24264,7 +24261,7 @@
       <c r="T343" s="1"/>
       <c r="U343" s="5"/>
     </row>
-    <row r="344" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="38"/>
       <c r="B344" s="38" t="s">
         <v>273</v>
@@ -24291,7 +24288,7 @@
       <c r="T344" s="1"/>
       <c r="U344" s="5"/>
     </row>
-    <row r="345" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="139"/>
       <c r="B345" s="139"/>
       <c r="C345" s="15"/>
@@ -24316,7 +24313,7 @@
       <c r="T345" s="1"/>
       <c r="U345" s="1"/>
     </row>
-    <row r="346" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="38" t="s">
         <v>274</v>
       </c>
@@ -24345,7 +24342,7 @@
       <c r="T346" s="1"/>
       <c r="U346" s="5"/>
     </row>
-    <row r="347" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="38"/>
       <c r="B347" s="38" t="s">
         <v>276</v>
@@ -24372,7 +24369,7 @@
       <c r="T347" s="1"/>
       <c r="U347" s="5"/>
     </row>
-    <row r="348" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="38"/>
       <c r="B348" s="139" t="s">
         <v>30</v>
@@ -24399,7 +24396,7 @@
       <c r="T348" s="1"/>
       <c r="U348" s="5"/>
     </row>
-    <row r="349" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="139"/>
       <c r="B349" s="139"/>
       <c r="C349" s="15"/>
@@ -24424,7 +24421,7 @@
       <c r="T349" s="1"/>
       <c r="U349" s="1"/>
     </row>
-    <row r="350" spans="1:21" ht="90" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="117" t="s">
         <v>277</v>
       </c>
@@ -24464,7 +24461,7 @@
       <c r="T350" s="1"/>
       <c r="U350" s="5"/>
     </row>
-    <row r="351" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="117"/>
       <c r="B351" s="143" t="s">
         <v>5</v>
@@ -24497,7 +24494,7 @@
       <c r="T351" s="1"/>
       <c r="U351" s="5"/>
     </row>
-    <row r="352" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="117"/>
       <c r="B352" s="143" t="s">
         <v>83</v>
@@ -24532,7 +24529,7 @@
       <c r="T352" s="1"/>
       <c r="U352" s="5"/>
     </row>
-    <row r="353" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="117"/>
       <c r="B353" s="143"/>
       <c r="C353" s="157"/>
@@ -24557,7 +24554,7 @@
       <c r="T353" s="1"/>
       <c r="U353" s="1"/>
     </row>
-    <row r="354" spans="1:21" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="120" t="s">
         <v>279</v>
       </c>
@@ -24596,7 +24593,7 @@
       <c r="T354" s="1"/>
       <c r="U354" s="5"/>
     </row>
-    <row r="355" spans="1:21" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="117"/>
       <c r="B355" s="143" t="s">
         <v>5</v>
@@ -24633,7 +24630,7 @@
       <c r="T355" s="1"/>
       <c r="U355" s="5"/>
     </row>
-    <row r="356" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="117"/>
       <c r="B356" s="143" t="s">
         <v>281</v>
@@ -24668,7 +24665,7 @@
       <c r="T356" s="1"/>
       <c r="U356" s="5"/>
     </row>
-    <row r="357" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="117"/>
       <c r="B357" s="143" t="s">
         <v>69</v>
@@ -24703,7 +24700,7 @@
       <c r="T357" s="1"/>
       <c r="U357" s="5"/>
     </row>
-    <row r="358" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="117"/>
       <c r="B358" s="143"/>
       <c r="C358" s="157"/>
@@ -24728,7 +24725,7 @@
       <c r="T358" s="1"/>
       <c r="U358" s="1"/>
     </row>
-    <row r="359" spans="1:21" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="117" t="s">
         <v>282</v>
       </c>
@@ -24766,7 +24763,7 @@
       <c r="T359" s="1"/>
       <c r="U359" s="5"/>
     </row>
-    <row r="360" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="117"/>
       <c r="B360" s="143" t="s">
         <v>226</v>
@@ -24799,7 +24796,7 @@
       <c r="T360" s="1"/>
       <c r="U360" s="5"/>
     </row>
-    <row r="361" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="117"/>
       <c r="B361" s="143" t="s">
         <v>13</v>
@@ -24832,7 +24829,7 @@
       <c r="T361" s="1"/>
       <c r="U361" s="5"/>
     </row>
-    <row r="362" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="117"/>
       <c r="B362" s="143"/>
       <c r="C362" s="157"/>
@@ -24857,7 +24854,7 @@
       <c r="T362" s="1"/>
       <c r="U362" s="1"/>
     </row>
-    <row r="363" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="38" t="s">
         <v>284</v>
       </c>
@@ -24886,7 +24883,7 @@
       <c r="T363" s="1"/>
       <c r="U363" s="5"/>
     </row>
-    <row r="364" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="38"/>
       <c r="B364" s="139" t="s">
         <v>5</v>
@@ -24913,7 +24910,7 @@
       <c r="T364" s="1"/>
       <c r="U364" s="5"/>
     </row>
-    <row r="365" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="38"/>
       <c r="B365" s="239" t="s">
         <v>286</v>
@@ -24940,7 +24937,7 @@
       <c r="T365" s="1"/>
       <c r="U365" s="5"/>
     </row>
-    <row r="366" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="139"/>
       <c r="B366" s="139"/>
       <c r="C366" s="15"/>
@@ -24965,7 +24962,7 @@
       <c r="T366" s="1"/>
       <c r="U366" s="1"/>
     </row>
-    <row r="367" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="38" t="s">
         <v>287</v>
       </c>
@@ -24998,7 +24995,7 @@
       <c r="T367" s="1"/>
       <c r="U367" s="5"/>
     </row>
-    <row r="368" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="38"/>
       <c r="B368" s="139" t="s">
         <v>5</v>
@@ -25029,7 +25026,7 @@
       <c r="T368" s="1"/>
       <c r="U368" s="5"/>
     </row>
-    <row r="369" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="38"/>
       <c r="B369" s="239" t="s">
         <v>291</v>
@@ -25056,7 +25053,7 @@
       <c r="T369" s="1"/>
       <c r="U369" s="5"/>
     </row>
-    <row r="370" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="139"/>
       <c r="B370" s="139"/>
       <c r="C370" s="15"/>
@@ -25081,7 +25078,7 @@
       <c r="T370" s="1"/>
       <c r="U370" s="1"/>
     </row>
-    <row r="371" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="38" t="s">
         <v>292</v>
       </c>
@@ -25110,7 +25107,7 @@
       <c r="T371" s="1"/>
       <c r="U371" s="5"/>
     </row>
-    <row r="372" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="38"/>
       <c r="B372" s="139" t="s">
         <v>5</v>
@@ -25137,7 +25134,7 @@
       <c r="T372" s="1"/>
       <c r="U372" s="5"/>
     </row>
-    <row r="373" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="38"/>
       <c r="B373" s="239" t="s">
         <v>294</v>
@@ -25164,7 +25161,7 @@
       <c r="T373" s="1"/>
       <c r="U373" s="5"/>
     </row>
-    <row r="374" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="139"/>
       <c r="B374" s="139"/>
       <c r="C374" s="15"/>
@@ -25189,7 +25186,7 @@
       <c r="T374" s="1"/>
       <c r="U374" s="1"/>
     </row>
-    <row r="375" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="38" t="s">
         <v>295</v>
       </c>
@@ -25218,7 +25215,7 @@
       <c r="T375" s="1"/>
       <c r="U375" s="5"/>
     </row>
-    <row r="376" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="38"/>
       <c r="B376" s="139" t="s">
         <v>5</v>
@@ -25245,7 +25242,7 @@
       <c r="T376" s="1"/>
       <c r="U376" s="5"/>
     </row>
-    <row r="377" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="38"/>
       <c r="B377" s="38" t="s">
         <v>297</v>
@@ -25272,7 +25269,7 @@
       <c r="T377" s="1"/>
       <c r="U377" s="5"/>
     </row>
-    <row r="378" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="139"/>
       <c r="B378" s="139" t="s">
         <v>298</v>
@@ -25299,7 +25296,7 @@
       <c r="T378" s="1"/>
       <c r="U378" s="5"/>
     </row>
-    <row r="379" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="139"/>
       <c r="B379" s="139"/>
       <c r="C379" s="15"/>
@@ -25324,7 +25321,7 @@
       <c r="T379" s="1"/>
       <c r="U379" s="1"/>
     </row>
-    <row r="380" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="38" t="s">
         <v>299</v>
       </c>
@@ -25353,7 +25350,7 @@
       <c r="T380" s="1"/>
       <c r="U380" s="5"/>
     </row>
-    <row r="381" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="38"/>
       <c r="B381" s="139" t="s">
         <v>5</v>
@@ -25380,7 +25377,7 @@
       <c r="T381" s="1"/>
       <c r="U381" s="5"/>
     </row>
-    <row r="382" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="38"/>
       <c r="B382" s="38" t="s">
         <v>301</v>
@@ -25407,7 +25404,7 @@
       <c r="T382" s="1"/>
       <c r="U382" s="5"/>
     </row>
-    <row r="383" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="139"/>
       <c r="B383" s="139"/>
       <c r="C383" s="15"/>
@@ -25432,7 +25429,7 @@
       <c r="T383" s="1"/>
       <c r="U383" s="1"/>
     </row>
-    <row r="384" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="38" t="s">
         <v>302</v>
       </c>
@@ -25465,7 +25462,7 @@
       <c r="T384" s="1"/>
       <c r="U384" s="5"/>
     </row>
-    <row r="385" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="38"/>
       <c r="B385" s="139" t="s">
         <v>5</v>
@@ -25496,7 +25493,7 @@
       <c r="T385" s="1"/>
       <c r="U385" s="5"/>
     </row>
-    <row r="386" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="38"/>
       <c r="B386" s="38" t="s">
         <v>304</v>
@@ -25523,7 +25520,7 @@
       <c r="T386" s="1"/>
       <c r="U386" s="5"/>
     </row>
-    <row r="387" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="139"/>
       <c r="B387" s="139"/>
       <c r="C387" s="15"/>
@@ -25548,7 +25545,7 @@
       <c r="T387" s="1"/>
       <c r="U387" s="1"/>
     </row>
-    <row r="388" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="38" t="s">
         <v>305</v>
       </c>
@@ -25577,7 +25574,7 @@
       <c r="T388" s="1"/>
       <c r="U388" s="5"/>
     </row>
-    <row r="389" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="38"/>
       <c r="B389" s="139" t="s">
         <v>5</v>
@@ -25604,7 +25601,7 @@
       <c r="T389" s="1"/>
       <c r="U389" s="5"/>
     </row>
-    <row r="390" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="38"/>
       <c r="B390" s="38" t="s">
         <v>307</v>
@@ -25631,7 +25628,7 @@
       <c r="T390" s="1"/>
       <c r="U390" s="5"/>
     </row>
-    <row r="391" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="139"/>
       <c r="B391" s="139"/>
       <c r="C391" s="15"/>
@@ -25656,7 +25653,7 @@
       <c r="T391" s="1"/>
       <c r="U391" s="1"/>
     </row>
-    <row r="392" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="38" t="s">
         <v>308</v>
       </c>
@@ -25689,7 +25686,7 @@
       <c r="T392" s="1"/>
       <c r="U392" s="5"/>
     </row>
-    <row r="393" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="38"/>
       <c r="B393" s="139" t="s">
         <v>5</v>
@@ -25720,7 +25717,7 @@
       <c r="T393" s="1"/>
       <c r="U393" s="5"/>
     </row>
-    <row r="394" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="38"/>
       <c r="B394" s="38" t="s">
         <v>312</v>
@@ -25751,7 +25748,7 @@
       <c r="T394" s="1"/>
       <c r="U394" s="5"/>
     </row>
-    <row r="395" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="139"/>
       <c r="B395" s="139"/>
       <c r="C395" s="15"/>
@@ -25776,7 +25773,7 @@
       <c r="T395" s="1"/>
       <c r="U395" s="1"/>
     </row>
-    <row r="396" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="38" t="s">
         <v>308</v>
       </c>
@@ -25809,7 +25806,7 @@
       <c r="T396" s="1"/>
       <c r="U396" s="5"/>
     </row>
-    <row r="397" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="38"/>
       <c r="B397" s="139" t="s">
         <v>5</v>
@@ -25840,7 +25837,7 @@
       <c r="T397" s="1"/>
       <c r="U397" s="5"/>
     </row>
-    <row r="398" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="38"/>
       <c r="B398" s="38" t="s">
         <v>312</v>
@@ -25871,7 +25868,7 @@
       <c r="T398" s="1"/>
       <c r="U398" s="5"/>
     </row>
-    <row r="399" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="139"/>
       <c r="B399" s="139"/>
       <c r="C399" s="15"/>
@@ -25896,7 +25893,7 @@
       <c r="T399" s="1"/>
       <c r="U399" s="1"/>
     </row>
-    <row r="400" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="38" t="s">
         <v>317</v>
       </c>
@@ -25925,7 +25922,7 @@
       <c r="T400" s="1"/>
       <c r="U400" s="5"/>
     </row>
-    <row r="401" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="38"/>
       <c r="B401" s="139" t="s">
         <v>5</v>
@@ -25952,7 +25949,7 @@
       <c r="T401" s="1"/>
       <c r="U401" s="5"/>
     </row>
-    <row r="402" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="38"/>
       <c r="B402" s="38" t="s">
         <v>319</v>
@@ -25979,7 +25976,7 @@
       <c r="T402" s="1"/>
       <c r="U402" s="5"/>
     </row>
-    <row r="403" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="38"/>
       <c r="B403" s="139" t="s">
         <v>298</v>
@@ -26006,7 +26003,7 @@
       <c r="T403" s="1"/>
       <c r="U403" s="5"/>
     </row>
-    <row r="404" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="139"/>
       <c r="B404" s="139"/>
       <c r="C404" s="15"/>
@@ -26031,7 +26028,7 @@
       <c r="T404" s="1"/>
       <c r="U404" s="1"/>
     </row>
-    <row r="405" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="38" t="s">
         <v>320</v>
       </c>
@@ -26060,7 +26057,7 @@
       <c r="T405" s="1"/>
       <c r="U405" s="5"/>
     </row>
-    <row r="406" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="38"/>
       <c r="B406" s="139" t="s">
         <v>5</v>
@@ -26087,7 +26084,7 @@
       <c r="T406" s="1"/>
       <c r="U406" s="5"/>
     </row>
-    <row r="407" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="38"/>
       <c r="B407" s="239" t="s">
         <v>322</v>
@@ -26114,7 +26111,7 @@
       <c r="T407" s="1"/>
       <c r="U407" s="5"/>
     </row>
-    <row r="408" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="139"/>
       <c r="B408" s="139"/>
       <c r="C408" s="15"/>
@@ -26139,7 +26136,7 @@
       <c r="T408" s="1"/>
       <c r="U408" s="1"/>
     </row>
-    <row r="409" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="38" t="s">
         <v>323</v>
       </c>
@@ -26168,7 +26165,7 @@
       <c r="T409" s="1"/>
       <c r="U409" s="5"/>
     </row>
-    <row r="410" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="38"/>
       <c r="B410" s="139" t="s">
         <v>5</v>
@@ -26195,7 +26192,7 @@
       <c r="T410" s="1"/>
       <c r="U410" s="5"/>
     </row>
-    <row r="411" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="38"/>
       <c r="B411" s="38" t="s">
         <v>325</v>
@@ -26222,7 +26219,7 @@
       <c r="T411" s="1"/>
       <c r="U411" s="5"/>
     </row>
-    <row r="412" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="139"/>
       <c r="B412" s="139"/>
       <c r="C412" s="15"/>
@@ -26247,7 +26244,7 @@
       <c r="T412" s="1"/>
       <c r="U412" s="1"/>
     </row>
-    <row r="413" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="38" t="s">
         <v>326</v>
       </c>
@@ -26280,7 +26277,7 @@
       <c r="T413" s="1"/>
       <c r="U413" s="5"/>
     </row>
-    <row r="414" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="38"/>
       <c r="B414" s="139" t="s">
         <v>329</v>
@@ -26311,7 +26308,7 @@
       <c r="T414" s="1"/>
       <c r="U414" s="5"/>
     </row>
-    <row r="415" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="38"/>
       <c r="B415" s="38" t="s">
         <v>331</v>
@@ -26338,7 +26335,7 @@
       <c r="T415" s="1"/>
       <c r="U415" s="5"/>
     </row>
-    <row r="416" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="139"/>
       <c r="B416" s="139"/>
       <c r="C416" s="15"/>
@@ -26363,7 +26360,7 @@
       <c r="T416" s="1"/>
       <c r="U416" s="1"/>
     </row>
-    <row r="417" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="38" t="s">
         <v>332</v>
       </c>
@@ -26392,7 +26389,7 @@
       <c r="T417" s="1"/>
       <c r="U417" s="5"/>
     </row>
-    <row r="418" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="38"/>
       <c r="B418" s="139" t="s">
         <v>5</v>
@@ -26419,7 +26416,7 @@
       <c r="T418" s="1"/>
       <c r="U418" s="5"/>
     </row>
-    <row r="419" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="38"/>
       <c r="B419" s="38" t="s">
         <v>334</v>
@@ -26446,7 +26443,7 @@
       <c r="T419" s="1"/>
       <c r="U419" s="5"/>
     </row>
-    <row r="420" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="38"/>
       <c r="B420" s="139" t="s">
         <v>335</v>
@@ -26473,7 +26470,7 @@
       <c r="T420" s="1"/>
       <c r="U420" s="5"/>
     </row>
-    <row r="421" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="139"/>
       <c r="B421" s="139"/>
       <c r="C421" s="15"/>
@@ -26498,7 +26495,7 @@
       <c r="T421" s="1"/>
       <c r="U421" s="1"/>
     </row>
-    <row r="422" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="38" t="s">
         <v>336</v>
       </c>
@@ -26531,7 +26528,7 @@
       <c r="T422" s="1"/>
       <c r="U422" s="5"/>
     </row>
-    <row r="423" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="38"/>
       <c r="B423" s="139" t="s">
         <v>5</v>
@@ -26562,7 +26559,7 @@
       <c r="T423" s="1"/>
       <c r="U423" s="5"/>
     </row>
-    <row r="424" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="38"/>
       <c r="B424" s="38" t="s">
         <v>340</v>
@@ -26589,7 +26586,7 @@
       <c r="T424" s="1"/>
       <c r="U424" s="5"/>
     </row>
-    <row r="425" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="139"/>
       <c r="B425" s="139"/>
       <c r="C425" s="15"/>
@@ -26614,7 +26611,7 @@
       <c r="T425" s="1"/>
       <c r="U425" s="1"/>
     </row>
-    <row r="426" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="38" t="s">
         <v>336</v>
       </c>
@@ -26647,7 +26644,7 @@
       <c r="T426" s="1"/>
       <c r="U426" s="5"/>
     </row>
-    <row r="427" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="38"/>
       <c r="B427" s="139" t="s">
         <v>5</v>
@@ -26674,7 +26671,7 @@
       <c r="T427" s="1"/>
       <c r="U427" s="5"/>
     </row>
-    <row r="428" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="38"/>
       <c r="B428" s="38" t="s">
         <v>340</v>
@@ -26701,7 +26698,7 @@
       <c r="T428" s="1"/>
       <c r="U428" s="5"/>
     </row>
-    <row r="429" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="139"/>
       <c r="B429" s="139"/>
       <c r="C429" s="15"/>
@@ -26726,7 +26723,7 @@
       <c r="T429" s="1"/>
       <c r="U429" s="1"/>
     </row>
-    <row r="430" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="38" t="s">
         <v>341</v>
       </c>
@@ -26755,7 +26752,7 @@
       <c r="T430" s="1"/>
       <c r="U430" s="5"/>
     </row>
-    <row r="431" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="38"/>
       <c r="B431" s="139" t="s">
         <v>5</v>
@@ -26782,7 +26779,7 @@
       <c r="T431" s="1"/>
       <c r="U431" s="5"/>
     </row>
-    <row r="432" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="38"/>
       <c r="B432" s="239" t="s">
         <v>343</v>
@@ -26809,7 +26806,7 @@
       <c r="T432" s="1"/>
       <c r="U432" s="5"/>
     </row>
-    <row r="433" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="139"/>
       <c r="B433" s="139"/>
       <c r="C433" s="15"/>
@@ -26834,7 +26831,7 @@
       <c r="T433" s="1"/>
       <c r="U433" s="1"/>
     </row>
-    <row r="434" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="38" t="s">
         <v>344</v>
       </c>
@@ -26863,7 +26860,7 @@
       <c r="T434" s="1"/>
       <c r="U434" s="5"/>
     </row>
-    <row r="435" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="38"/>
       <c r="B435" s="139" t="s">
         <v>5</v>
@@ -26890,7 +26887,7 @@
       <c r="T435" s="1"/>
       <c r="U435" s="5"/>
     </row>
-    <row r="436" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="38"/>
       <c r="B436" s="38" t="s">
         <v>346</v>
@@ -26917,7 +26914,7 @@
       <c r="T436" s="1"/>
       <c r="U436" s="5"/>
     </row>
-    <row r="437" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="139"/>
       <c r="B437" s="139"/>
       <c r="C437" s="15"/>
@@ -26942,7 +26939,7 @@
       <c r="T437" s="1"/>
       <c r="U437" s="1"/>
     </row>
-    <row r="438" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="38" t="s">
         <v>347</v>
       </c>
@@ -26971,7 +26968,7 @@
       <c r="T438" s="1"/>
       <c r="U438" s="5"/>
     </row>
-    <row r="439" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="38"/>
       <c r="B439" s="139" t="s">
         <v>5</v>
@@ -26998,7 +26995,7 @@
       <c r="T439" s="1"/>
       <c r="U439" s="5"/>
     </row>
-    <row r="440" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="38"/>
       <c r="B440" s="239" t="s">
         <v>349</v>
@@ -27025,7 +27022,7 @@
       <c r="T440" s="1"/>
       <c r="U440" s="5"/>
     </row>
-    <row r="441" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="38"/>
       <c r="B441" s="139" t="s">
         <v>102</v>
@@ -27052,7 +27049,7 @@
       <c r="T441" s="1"/>
       <c r="U441" s="5"/>
     </row>
-    <row r="442" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="139"/>
       <c r="B442" s="139"/>
       <c r="C442" s="15"/>
@@ -27077,7 +27074,7 @@
       <c r="T442" s="1"/>
       <c r="U442" s="1"/>
     </row>
-    <row r="443" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="38" t="s">
         <v>350</v>
       </c>
@@ -27106,7 +27103,7 @@
       <c r="T443" s="1"/>
       <c r="U443" s="5"/>
     </row>
-    <row r="444" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="38"/>
       <c r="B444" s="139" t="s">
         <v>5</v>
@@ -27133,7 +27130,7 @@
       <c r="T444" s="1"/>
       <c r="U444" s="5"/>
     </row>
-    <row r="445" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="38"/>
       <c r="B445" s="38" t="s">
         <v>352</v>
@@ -27160,7 +27157,7 @@
       <c r="T445" s="1"/>
       <c r="U445" s="5"/>
     </row>
-    <row r="446" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="139"/>
       <c r="B446" s="139"/>
       <c r="C446" s="15"/>
@@ -27185,7 +27182,7 @@
       <c r="T446" s="1"/>
       <c r="U446" s="1"/>
     </row>
-    <row r="447" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="38" t="s">
         <v>353</v>
       </c>
@@ -27214,7 +27211,7 @@
       <c r="T447" s="1"/>
       <c r="U447" s="5"/>
     </row>
-    <row r="448" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="38"/>
       <c r="B448" s="139" t="s">
         <v>5</v>
@@ -27241,7 +27238,7 @@
       <c r="T448" s="1"/>
       <c r="U448" s="5"/>
     </row>
-    <row r="449" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="38"/>
       <c r="B449" s="38" t="s">
         <v>355</v>
@@ -27268,7 +27265,7 @@
       <c r="T449" s="1"/>
       <c r="U449" s="5"/>
     </row>
-    <row r="450" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="38"/>
       <c r="B450" s="139" t="s">
         <v>356</v>
@@ -27295,7 +27292,7 @@
       <c r="T450" s="1"/>
       <c r="U450" s="5"/>
     </row>
-    <row r="451" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="139"/>
       <c r="B451" s="139"/>
       <c r="C451" s="15"/>
@@ -27320,7 +27317,7 @@
       <c r="T451" s="1"/>
       <c r="U451" s="1"/>
     </row>
-    <row r="452" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="38" t="s">
         <v>357</v>
       </c>
@@ -27349,7 +27346,7 @@
       <c r="T452" s="1"/>
       <c r="U452" s="5"/>
     </row>
-    <row r="453" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="38"/>
       <c r="B453" s="139" t="s">
         <v>5</v>
@@ -27376,7 +27373,7 @@
       <c r="T453" s="1"/>
       <c r="U453" s="5"/>
     </row>
-    <row r="454" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="38"/>
       <c r="B454" s="38" t="s">
         <v>359</v>
@@ -27403,7 +27400,7 @@
       <c r="T454" s="1"/>
       <c r="U454" s="5"/>
     </row>
-    <row r="455" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="139"/>
       <c r="B455" s="139"/>
       <c r="C455" s="15"/>
@@ -27428,7 +27425,7 @@
       <c r="T455" s="1"/>
       <c r="U455" s="1"/>
     </row>
-    <row r="456" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="38" t="s">
         <v>360</v>
       </c>
@@ -27457,7 +27454,7 @@
       <c r="T456" s="1"/>
       <c r="U456" s="5"/>
     </row>
-    <row r="457" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="38"/>
       <c r="B457" s="139" t="s">
         <v>5</v>
@@ -27484,7 +27481,7 @@
       <c r="T457" s="1"/>
       <c r="U457" s="5"/>
     </row>
-    <row r="458" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="38"/>
       <c r="B458" s="239" t="s">
         <v>362</v>
@@ -27511,7 +27508,7 @@
       <c r="T458" s="1"/>
       <c r="U458" s="5"/>
     </row>
-    <row r="459" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="139"/>
       <c r="B459" s="139"/>
       <c r="C459" s="15"/>
@@ -27536,7 +27533,7 @@
       <c r="T459" s="1"/>
       <c r="U459" s="1"/>
     </row>
-    <row r="460" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="38" t="s">
         <v>363</v>
       </c>
@@ -27565,7 +27562,7 @@
       <c r="T460" s="1"/>
       <c r="U460" s="5"/>
     </row>
-    <row r="461" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="38"/>
       <c r="B461" s="139" t="s">
         <v>5</v>
@@ -27592,7 +27589,7 @@
       <c r="T461" s="1"/>
       <c r="U461" s="5"/>
     </row>
-    <row r="462" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="38"/>
       <c r="B462" s="38" t="s">
         <v>365</v>
@@ -27619,7 +27616,7 @@
       <c r="T462" s="1"/>
       <c r="U462" s="5"/>
     </row>
-    <row r="463" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="139"/>
       <c r="B463" s="139"/>
       <c r="C463" s="15"/>
@@ -27644,7 +27641,7 @@
       <c r="T463" s="1"/>
       <c r="U463" s="1"/>
     </row>
-    <row r="464" spans="1:21" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="117" t="s">
         <v>366</v>
       </c>
@@ -27684,7 +27681,7 @@
       <c r="T464" s="1"/>
       <c r="U464" s="5"/>
     </row>
-    <row r="465" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="117"/>
       <c r="B465" s="143" t="s">
         <v>368</v>
@@ -27717,7 +27714,7 @@
       <c r="T465" s="1"/>
       <c r="U465" s="5"/>
     </row>
-    <row r="466" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="117"/>
       <c r="B466" s="143"/>
       <c r="C466" s="157"/>
@@ -27742,7 +27739,7 @@
       <c r="T466" s="1"/>
       <c r="U466" s="1"/>
     </row>
-    <row r="467" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="117" t="s">
         <v>369</v>
       </c>
@@ -27781,7 +27778,7 @@
       <c r="T467" s="1"/>
       <c r="U467" s="5"/>
     </row>
-    <row r="468" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="117"/>
       <c r="B468" s="143" t="s">
         <v>371</v>
@@ -27812,7 +27809,7 @@
       <c r="T468" s="1"/>
       <c r="U468" s="5"/>
     </row>
-    <row r="469" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="117"/>
       <c r="B469" s="143"/>
       <c r="C469" s="157"/>
@@ -27837,7 +27834,7 @@
       <c r="T469" s="1"/>
       <c r="U469" s="1"/>
     </row>
-    <row r="470" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="120" t="s">
         <v>372</v>
       </c>
@@ -27871,7 +27868,7 @@
       <c r="T470" s="1"/>
       <c r="U470" s="5"/>
     </row>
-    <row r="471" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="120"/>
       <c r="B471" s="146" t="s">
         <v>5</v>
@@ -27902,7 +27899,7 @@
       <c r="T471" s="1"/>
       <c r="U471" s="5"/>
     </row>
-    <row r="472" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="117"/>
       <c r="B472" s="143"/>
       <c r="C472" s="157"/>
@@ -27927,7 +27924,7 @@
       <c r="T472" s="1"/>
       <c r="U472" s="1"/>
     </row>
-    <row r="473" spans="1:21" ht="51.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:21" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="117" t="s">
         <v>374</v>
       </c>
@@ -27967,7 +27964,7 @@
       <c r="T473" s="1"/>
       <c r="U473" s="5"/>
     </row>
-    <row r="474" spans="1:21" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="117"/>
       <c r="B474" s="143" t="s">
         <v>5</v>
@@ -28000,7 +27997,7 @@
       <c r="T474" s="1"/>
       <c r="U474" s="5"/>
     </row>
-    <row r="475" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="117"/>
       <c r="B475" s="143"/>
       <c r="C475" s="157"/>
@@ -28025,7 +28022,7 @@
       <c r="T475" s="1"/>
       <c r="U475" s="1"/>
     </row>
-    <row r="476" spans="1:21" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="117" t="s">
         <v>376</v>
       </c>
@@ -28063,7 +28060,7 @@
       <c r="T476" s="1"/>
       <c r="U476" s="5"/>
     </row>
-    <row r="477" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="117"/>
       <c r="B477" s="143" t="s">
         <v>5</v>
@@ -28096,7 +28093,7 @@
       <c r="T477" s="1"/>
       <c r="U477" s="5"/>
     </row>
-    <row r="478" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="117"/>
       <c r="B478" s="143" t="s">
         <v>378</v>
@@ -28129,7 +28126,7 @@
       <c r="T478" s="1"/>
       <c r="U478" s="5"/>
     </row>
-    <row r="479" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="117"/>
       <c r="B479" s="143"/>
       <c r="C479" s="157"/>
@@ -28154,7 +28151,7 @@
       <c r="T479" s="1"/>
       <c r="U479" s="1"/>
     </row>
-    <row r="480" spans="1:21" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="117" t="s">
         <v>379</v>
       </c>
@@ -28192,7 +28189,7 @@
       <c r="T480" s="1"/>
       <c r="U480" s="5"/>
     </row>
-    <row r="481" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="117"/>
       <c r="B481" s="143" t="s">
         <v>5</v>
@@ -28227,7 +28224,7 @@
       <c r="T481" s="1"/>
       <c r="U481" s="5"/>
     </row>
-    <row r="482" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="117"/>
       <c r="B482" s="143" t="s">
         <v>90</v>
@@ -28262,7 +28259,7 @@
       <c r="T482" s="1"/>
       <c r="U482" s="5"/>
     </row>
-    <row r="483" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="117"/>
       <c r="B483" s="143"/>
       <c r="C483" s="157"/>
@@ -28287,7 +28284,7 @@
       <c r="T483" s="1"/>
       <c r="U483" s="1"/>
     </row>
-    <row r="484" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="38" t="s">
         <v>381</v>
       </c>
@@ -28316,7 +28313,7 @@
       <c r="T484" s="1"/>
       <c r="U484" s="5"/>
     </row>
-    <row r="485" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="38"/>
       <c r="B485" s="139" t="s">
         <v>5</v>
@@ -28343,7 +28340,7 @@
       <c r="T485" s="1"/>
       <c r="U485" s="5"/>
     </row>
-    <row r="486" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="38"/>
       <c r="B486" s="239" t="s">
         <v>383</v>
@@ -28370,7 +28367,7 @@
       <c r="T486" s="1"/>
       <c r="U486" s="5"/>
     </row>
-    <row r="487" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="139"/>
       <c r="B487" s="139"/>
       <c r="C487" s="15"/>
@@ -28395,7 +28392,7 @@
       <c r="T487" s="1"/>
       <c r="U487" s="1"/>
     </row>
-    <row r="488" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="38" t="s">
         <v>384</v>
       </c>
@@ -28424,7 +28421,7 @@
       <c r="T488" s="1"/>
       <c r="U488" s="5"/>
     </row>
-    <row r="489" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="38"/>
       <c r="B489" s="139" t="s">
         <v>12</v>
@@ -28451,7 +28448,7 @@
       <c r="T489" s="1"/>
       <c r="U489" s="5"/>
     </row>
-    <row r="490" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="38"/>
       <c r="B490" s="239" t="s">
         <v>386</v>
@@ -28478,7 +28475,7 @@
       <c r="T490" s="1"/>
       <c r="U490" s="5"/>
     </row>
-    <row r="491" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="38"/>
       <c r="B491" s="139" t="s">
         <v>387</v>
@@ -28505,7 +28502,7 @@
       <c r="T491" s="1"/>
       <c r="U491" s="5"/>
     </row>
-    <row r="492" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="139"/>
       <c r="B492" s="139"/>
       <c r="C492" s="15"/>
@@ -28530,7 +28527,7 @@
       <c r="T492" s="1"/>
       <c r="U492" s="1"/>
     </row>
-    <row r="493" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="38" t="s">
         <v>388</v>
       </c>
@@ -28559,7 +28556,7 @@
       <c r="T493" s="1"/>
       <c r="U493" s="5"/>
     </row>
-    <row r="494" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="38"/>
       <c r="B494" s="139" t="s">
         <v>34</v>
@@ -28586,7 +28583,7 @@
       <c r="T494" s="1"/>
       <c r="U494" s="5"/>
     </row>
-    <row r="495" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="38"/>
       <c r="B495" s="38" t="s">
         <v>390</v>
@@ -28613,7 +28610,7 @@
       <c r="T495" s="1"/>
       <c r="U495" s="5"/>
     </row>
-    <row r="496" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="139"/>
       <c r="B496" s="139"/>
       <c r="C496" s="15"/>
@@ -28638,7 +28635,7 @@
       <c r="T496" s="1"/>
       <c r="U496" s="1"/>
     </row>
-    <row r="497" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="38" t="s">
         <v>391</v>
       </c>
@@ -28667,7 +28664,7 @@
       <c r="T497" s="1"/>
       <c r="U497" s="5"/>
     </row>
-    <row r="498" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="38"/>
       <c r="B498" s="139" t="s">
         <v>5</v>
@@ -28694,7 +28691,7 @@
       <c r="T498" s="1"/>
       <c r="U498" s="5"/>
     </row>
-    <row r="499" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="38"/>
       <c r="B499" s="38" t="s">
         <v>393</v>
@@ -28721,7 +28718,7 @@
       <c r="T499" s="1"/>
       <c r="U499" s="5"/>
     </row>
-    <row r="500" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="139"/>
       <c r="B500" s="139"/>
       <c r="C500" s="15"/>
@@ -28746,7 +28743,7 @@
       <c r="T500" s="1"/>
       <c r="U500" s="1"/>
     </row>
-    <row r="501" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="38" t="s">
         <v>394</v>
       </c>
@@ -28775,7 +28772,7 @@
       <c r="T501" s="1"/>
       <c r="U501" s="5"/>
     </row>
-    <row r="502" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="38"/>
       <c r="B502" s="139" t="s">
         <v>5</v>
@@ -28802,7 +28799,7 @@
       <c r="T502" s="1"/>
       <c r="U502" s="5"/>
     </row>
-    <row r="503" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="38"/>
       <c r="B503" s="38" t="s">
         <v>396</v>
@@ -28829,7 +28826,7 @@
       <c r="T503" s="1"/>
       <c r="U503" s="5"/>
     </row>
-    <row r="504" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="139"/>
       <c r="B504" s="139"/>
       <c r="C504" s="15"/>
@@ -28854,7 +28851,7 @@
       <c r="T504" s="1"/>
       <c r="U504" s="1"/>
     </row>
-    <row r="505" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="38" t="s">
         <v>397</v>
       </c>
@@ -28883,7 +28880,7 @@
       <c r="T505" s="1"/>
       <c r="U505" s="5"/>
     </row>
-    <row r="506" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="38"/>
       <c r="B506" s="139" t="s">
         <v>5</v>
@@ -28910,7 +28907,7 @@
       <c r="T506" s="1"/>
       <c r="U506" s="5"/>
     </row>
-    <row r="507" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="38"/>
       <c r="B507" s="38" t="s">
         <v>399</v>
@@ -28937,7 +28934,7 @@
       <c r="T507" s="1"/>
       <c r="U507" s="5"/>
     </row>
-    <row r="508" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="139"/>
       <c r="B508" s="139"/>
       <c r="C508" s="15"/>
@@ -28962,7 +28959,7 @@
       <c r="T508" s="1"/>
       <c r="U508" s="1"/>
     </row>
-    <row r="509" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="38" t="s">
         <v>400</v>
       </c>
@@ -28991,7 +28988,7 @@
       <c r="T509" s="1"/>
       <c r="U509" s="5"/>
     </row>
-    <row r="510" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="38"/>
       <c r="B510" s="139" t="s">
         <v>5</v>
@@ -29018,7 +29015,7 @@
       <c r="T510" s="1"/>
       <c r="U510" s="5"/>
     </row>
-    <row r="511" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="38"/>
       <c r="B511" s="38" t="s">
         <v>402</v>
@@ -29045,7 +29042,7 @@
       <c r="T511" s="1"/>
       <c r="U511" s="5"/>
     </row>
-    <row r="512" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="139"/>
       <c r="B512" s="139"/>
       <c r="C512" s="15"/>
@@ -29070,7 +29067,7 @@
       <c r="T512" s="1"/>
       <c r="U512" s="1"/>
     </row>
-    <row r="513" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="38" t="s">
         <v>403</v>
       </c>
@@ -29099,7 +29096,7 @@
       <c r="T513" s="1"/>
       <c r="U513" s="5"/>
     </row>
-    <row r="514" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="38"/>
       <c r="B514" s="139" t="s">
         <v>5</v>
@@ -29126,7 +29123,7 @@
       <c r="T514" s="1"/>
       <c r="U514" s="5"/>
     </row>
-    <row r="515" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="38"/>
       <c r="B515" s="38" t="s">
         <v>405</v>
@@ -29153,7 +29150,7 @@
       <c r="T515" s="1"/>
       <c r="U515" s="5"/>
     </row>
-    <row r="516" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="38"/>
       <c r="B516" s="139" t="s">
         <v>335</v>
@@ -29180,7 +29177,7 @@
       <c r="T516" s="1"/>
       <c r="U516" s="5"/>
     </row>
-    <row r="517" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="139"/>
       <c r="B517" s="139"/>
       <c r="C517" s="15"/>
@@ -29205,7 +29202,7 @@
       <c r="T517" s="1"/>
       <c r="U517" s="1"/>
     </row>
-    <row r="518" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="38" t="s">
         <v>406</v>
       </c>
@@ -29234,7 +29231,7 @@
       <c r="T518" s="1"/>
       <c r="U518" s="5"/>
     </row>
-    <row r="519" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="38"/>
       <c r="B519" s="139" t="s">
         <v>5</v>
@@ -29261,7 +29258,7 @@
       <c r="T519" s="1"/>
       <c r="U519" s="5"/>
     </row>
-    <row r="520" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="38"/>
       <c r="B520" s="239" t="s">
         <v>408</v>
@@ -29288,7 +29285,7 @@
       <c r="T520" s="1"/>
       <c r="U520" s="5"/>
     </row>
-    <row r="521" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="139"/>
       <c r="B521" s="139"/>
       <c r="C521" s="15"/>
@@ -29313,7 +29310,7 @@
       <c r="T521" s="1"/>
       <c r="U521" s="1"/>
     </row>
-    <row r="522" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="38" t="s">
         <v>409</v>
       </c>
@@ -29342,7 +29339,7 @@
       <c r="T522" s="1"/>
       <c r="U522" s="5"/>
     </row>
-    <row r="523" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="38"/>
       <c r="B523" s="139" t="s">
         <v>5</v>
@@ -29369,7 +29366,7 @@
       <c r="T523" s="1"/>
       <c r="U523" s="5"/>
     </row>
-    <row r="524" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="38"/>
       <c r="B524" s="38" t="s">
         <v>411</v>
@@ -29396,7 +29393,7 @@
       <c r="T524" s="1"/>
       <c r="U524" s="5"/>
     </row>
-    <row r="525" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="139"/>
       <c r="B525" s="139"/>
       <c r="C525" s="15"/>
@@ -29421,7 +29418,7 @@
       <c r="T525" s="1"/>
       <c r="U525" s="1"/>
     </row>
-    <row r="526" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="38" t="s">
         <v>412</v>
       </c>
@@ -29450,7 +29447,7 @@
       <c r="T526" s="1"/>
       <c r="U526" s="5"/>
     </row>
-    <row r="527" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="38"/>
       <c r="B527" s="139" t="s">
         <v>368</v>
@@ -29477,7 +29474,7 @@
       <c r="T527" s="1"/>
       <c r="U527" s="5"/>
     </row>
-    <row r="528" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="38"/>
       <c r="B528" s="38" t="s">
         <v>414</v>
@@ -29504,7 +29501,7 @@
       <c r="T528" s="1"/>
       <c r="U528" s="5"/>
     </row>
-    <row r="529" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="139"/>
       <c r="B529" s="139"/>
       <c r="C529" s="15"/>
@@ -29529,7 +29526,7 @@
       <c r="T529" s="1"/>
       <c r="U529" s="1"/>
     </row>
-    <row r="530" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="38" t="s">
         <v>415</v>
       </c>
@@ -29558,7 +29555,7 @@
       <c r="T530" s="1"/>
       <c r="U530" s="5"/>
     </row>
-    <row r="531" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="38"/>
       <c r="B531" s="139" t="s">
         <v>5</v>
@@ -29585,7 +29582,7 @@
       <c r="T531" s="1"/>
       <c r="U531" s="5"/>
     </row>
-    <row r="532" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="38"/>
       <c r="B532" s="38" t="s">
         <v>417</v>
@@ -29612,7 +29609,7 @@
       <c r="T532" s="1"/>
       <c r="U532" s="5"/>
     </row>
-    <row r="533" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="139"/>
       <c r="B533" s="139"/>
       <c r="C533" s="15"/>
@@ -29637,7 +29634,7 @@
       <c r="T533" s="1"/>
       <c r="U533" s="1"/>
     </row>
-    <row r="534" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="38" t="s">
         <v>418</v>
       </c>
@@ -29666,7 +29663,7 @@
       <c r="T534" s="1"/>
       <c r="U534" s="5"/>
     </row>
-    <row r="535" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="38"/>
       <c r="B535" s="139" t="s">
         <v>5</v>
@@ -29693,7 +29690,7 @@
       <c r="T535" s="1"/>
       <c r="U535" s="5"/>
     </row>
-    <row r="536" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="38"/>
       <c r="B536" s="38" t="s">
         <v>420</v>
@@ -29720,7 +29717,7 @@
       <c r="T536" s="1"/>
       <c r="U536" s="5"/>
     </row>
-    <row r="537" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="139"/>
       <c r="B537" s="139"/>
       <c r="C537" s="15"/>
@@ -29745,7 +29742,7 @@
       <c r="T537" s="1"/>
       <c r="U537" s="1"/>
     </row>
-    <row r="538" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="38" t="s">
         <v>421</v>
       </c>
@@ -29774,7 +29771,7 @@
       <c r="T538" s="1"/>
       <c r="U538" s="5"/>
     </row>
-    <row r="539" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="38"/>
       <c r="B539" s="139" t="s">
         <v>5</v>
@@ -29801,7 +29798,7 @@
       <c r="T539" s="1"/>
       <c r="U539" s="5"/>
     </row>
-    <row r="540" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="38"/>
       <c r="B540" s="38" t="s">
         <v>423</v>
@@ -29828,7 +29825,7 @@
       <c r="T540" s="1"/>
       <c r="U540" s="5"/>
     </row>
-    <row r="541" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="38"/>
       <c r="B541" s="139" t="s">
         <v>83</v>
@@ -29855,7 +29852,7 @@
       <c r="T541" s="1"/>
       <c r="U541" s="5"/>
     </row>
-    <row r="542" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="139"/>
       <c r="B542" s="139"/>
       <c r="C542" s="15"/>
@@ -29880,7 +29877,7 @@
       <c r="T542" s="1"/>
       <c r="U542" s="1"/>
     </row>
-    <row r="543" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="38" t="s">
         <v>424</v>
       </c>
@@ -29909,7 +29906,7 @@
       <c r="T543" s="1"/>
       <c r="U543" s="5"/>
     </row>
-    <row r="544" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="38"/>
       <c r="B544" s="139" t="s">
         <v>5</v>
@@ -29936,7 +29933,7 @@
       <c r="T544" s="1"/>
       <c r="U544" s="5"/>
     </row>
-    <row r="545" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="38"/>
       <c r="B545" s="38" t="s">
         <v>426</v>
@@ -29963,7 +29960,7 @@
       <c r="T545" s="1"/>
       <c r="U545" s="5"/>
     </row>
-    <row r="546" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="139"/>
       <c r="B546" s="139"/>
       <c r="C546" s="15"/>
@@ -29988,7 +29985,7 @@
       <c r="T546" s="1"/>
       <c r="U546" s="1"/>
     </row>
-    <row r="547" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="38" t="s">
         <v>427</v>
       </c>
@@ -30017,7 +30014,7 @@
       <c r="T547" s="1"/>
       <c r="U547" s="5"/>
     </row>
-    <row r="548" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="38"/>
       <c r="B548" s="139" t="s">
         <v>5</v>
@@ -30044,7 +30041,7 @@
       <c r="T548" s="1"/>
       <c r="U548" s="5"/>
     </row>
-    <row r="549" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="38"/>
       <c r="B549" s="38" t="s">
         <v>429</v>
@@ -30071,7 +30068,7 @@
       <c r="T549" s="1"/>
       <c r="U549" s="5"/>
     </row>
-    <row r="550" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="38"/>
       <c r="B550" s="139" t="s">
         <v>83</v>
@@ -30098,7 +30095,7 @@
       <c r="T550" s="1"/>
       <c r="U550" s="5"/>
     </row>
-    <row r="551" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="139"/>
       <c r="B551" s="139"/>
       <c r="C551" s="15"/>
@@ -30123,7 +30120,7 @@
       <c r="T551" s="1"/>
       <c r="U551" s="1"/>
     </row>
-    <row r="552" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="38" t="s">
         <v>430</v>
       </c>
@@ -30152,7 +30149,7 @@
       <c r="T552" s="1"/>
       <c r="U552" s="5"/>
     </row>
-    <row r="553" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="38"/>
       <c r="B553" s="139" t="s">
         <v>432</v>
@@ -30179,7 +30176,7 @@
       <c r="T553" s="1"/>
       <c r="U553" s="5"/>
     </row>
-    <row r="554" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="38"/>
       <c r="B554" s="38" t="s">
         <v>433</v>
@@ -30206,7 +30203,7 @@
       <c r="T554" s="1"/>
       <c r="U554" s="5"/>
     </row>
-    <row r="555" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="139"/>
       <c r="B555" s="139"/>
       <c r="C555" s="15"/>
@@ -30231,7 +30228,7 @@
       <c r="T555" s="1"/>
       <c r="U555" s="1"/>
     </row>
-    <row r="556" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="38" t="s">
         <v>434</v>
       </c>
@@ -30260,7 +30257,7 @@
       <c r="T556" s="1"/>
       <c r="U556" s="5"/>
     </row>
-    <row r="557" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="38"/>
       <c r="B557" s="239" t="s">
         <v>436</v>
@@ -30287,7 +30284,7 @@
       <c r="T557" s="1"/>
       <c r="U557" s="5"/>
     </row>
-    <row r="558" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="139"/>
       <c r="B558" s="139"/>
       <c r="C558" s="15"/>
@@ -30312,7 +30309,7 @@
       <c r="T558" s="1"/>
       <c r="U558" s="1"/>
     </row>
-    <row r="559" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="38" t="s">
         <v>437</v>
       </c>
@@ -30341,7 +30338,7 @@
       <c r="T559" s="1"/>
       <c r="U559" s="5"/>
     </row>
-    <row r="560" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="38"/>
       <c r="B560" s="139" t="s">
         <v>5</v>
@@ -30368,7 +30365,7 @@
       <c r="T560" s="1"/>
       <c r="U560" s="5"/>
     </row>
-    <row r="561" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="38"/>
       <c r="B561" s="38" t="s">
         <v>439</v>
@@ -30395,7 +30392,7 @@
       <c r="T561" s="1"/>
       <c r="U561" s="5"/>
     </row>
-    <row r="562" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="38"/>
       <c r="B562" s="139" t="s">
         <v>440</v>
@@ -30422,7 +30419,7 @@
       <c r="T562" s="1"/>
       <c r="U562" s="5"/>
     </row>
-    <row r="563" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="139"/>
       <c r="B563" s="139"/>
       <c r="C563" s="15"/>
@@ -30447,7 +30444,7 @@
       <c r="T563" s="1"/>
       <c r="U563" s="1"/>
     </row>
-    <row r="564" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="38" t="s">
         <v>441</v>
       </c>
@@ -30476,7 +30473,7 @@
       <c r="T564" s="1"/>
       <c r="U564" s="5"/>
     </row>
-    <row r="565" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="38"/>
       <c r="B565" s="139" t="s">
         <v>5</v>
@@ -30503,7 +30500,7 @@
       <c r="T565" s="1"/>
       <c r="U565" s="5"/>
     </row>
-    <row r="566" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="38"/>
       <c r="B566" s="239" t="s">
         <v>443</v>
@@ -30530,7 +30527,7 @@
       <c r="T566" s="1"/>
       <c r="U566" s="5"/>
     </row>
-    <row r="567" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="139"/>
       <c r="B567" s="139"/>
       <c r="C567" s="15"/>
@@ -30555,7 +30552,7 @@
       <c r="T567" s="1"/>
       <c r="U567" s="1"/>
     </row>
-    <row r="568" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="38" t="s">
         <v>444</v>
       </c>
@@ -30584,7 +30581,7 @@
       <c r="T568" s="1"/>
       <c r="U568" s="5"/>
     </row>
-    <row r="569" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="38"/>
       <c r="B569" s="139" t="s">
         <v>446</v>
@@ -30611,7 +30608,7 @@
       <c r="T569" s="1"/>
       <c r="U569" s="5"/>
     </row>
-    <row r="570" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="38"/>
       <c r="B570" s="38" t="s">
         <v>447</v>
@@ -30638,7 +30635,7 @@
       <c r="T570" s="1"/>
       <c r="U570" s="5"/>
     </row>
-    <row r="571" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="139"/>
       <c r="B571" s="139"/>
       <c r="C571" s="15"/>
@@ -30663,7 +30660,7 @@
       <c r="T571" s="1"/>
       <c r="U571" s="1"/>
     </row>
-    <row r="572" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="38" t="s">
         <v>448</v>
       </c>
@@ -30692,7 +30689,7 @@
       <c r="T572" s="1"/>
       <c r="U572" s="5"/>
     </row>
-    <row r="573" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="38"/>
       <c r="B573" s="139" t="s">
         <v>5</v>
@@ -30719,7 +30716,7 @@
       <c r="T573" s="1"/>
       <c r="U573" s="5"/>
     </row>
-    <row r="574" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="38"/>
       <c r="B574" s="38" t="s">
         <v>450</v>
@@ -30746,7 +30743,7 @@
       <c r="T574" s="1"/>
       <c r="U574" s="5"/>
     </row>
-    <row r="575" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="139"/>
       <c r="B575" s="139"/>
       <c r="C575" s="15"/>
@@ -30771,7 +30768,7 @@
       <c r="T575" s="1"/>
       <c r="U575" s="1"/>
     </row>
-    <row r="576" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="38" t="s">
         <v>451</v>
       </c>
@@ -30800,7 +30797,7 @@
       <c r="T576" s="1"/>
       <c r="U576" s="5"/>
     </row>
-    <row r="577" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="38"/>
       <c r="B577" s="139" t="s">
         <v>5</v>
@@ -30827,7 +30824,7 @@
       <c r="T577" s="1"/>
       <c r="U577" s="5"/>
     </row>
-    <row r="578" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="38"/>
       <c r="B578" s="38" t="s">
         <v>453</v>
@@ -30854,7 +30851,7 @@
       <c r="T578" s="1"/>
       <c r="U578" s="5"/>
     </row>
-    <row r="579" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="139"/>
       <c r="B579" s="139"/>
       <c r="C579" s="15"/>
@@ -30879,7 +30876,7 @@
       <c r="T579" s="1"/>
       <c r="U579" s="1"/>
     </row>
-    <row r="580" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="38" t="s">
         <v>454</v>
       </c>
@@ -30908,7 +30905,7 @@
       <c r="T580" s="1"/>
       <c r="U580" s="5"/>
     </row>
-    <row r="581" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="38"/>
       <c r="B581" s="139" t="s">
         <v>446</v>
@@ -30935,7 +30932,7 @@
       <c r="T581" s="1"/>
       <c r="U581" s="5"/>
     </row>
-    <row r="582" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="38"/>
       <c r="B582" s="38" t="s">
         <v>456</v>
@@ -30962,7 +30959,7 @@
       <c r="T582" s="1"/>
       <c r="U582" s="5"/>
     </row>
-    <row r="583" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="139"/>
       <c r="B583" s="139"/>
       <c r="C583" s="15"/>
@@ -30987,7 +30984,7 @@
       <c r="T583" s="1"/>
       <c r="U583" s="1"/>
     </row>
-    <row r="584" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="38" t="s">
         <v>457</v>
       </c>
@@ -31016,7 +31013,7 @@
       <c r="T584" s="1"/>
       <c r="U584" s="5"/>
     </row>
-    <row r="585" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="38"/>
       <c r="B585" s="139" t="s">
         <v>5</v>
@@ -31043,7 +31040,7 @@
       <c r="T585" s="1"/>
       <c r="U585" s="5"/>
     </row>
-    <row r="586" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="38"/>
       <c r="B586" s="239" t="s">
         <v>459</v>
@@ -31070,7 +31067,7 @@
       <c r="T586" s="1"/>
       <c r="U586" s="5"/>
     </row>
-    <row r="587" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="139"/>
       <c r="B587" s="139"/>
       <c r="C587" s="15"/>
@@ -31095,7 +31092,7 @@
       <c r="T587" s="1"/>
       <c r="U587" s="1"/>
     </row>
-    <row r="588" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="38" t="s">
         <v>460</v>
       </c>
@@ -31124,7 +31121,7 @@
       <c r="T588" s="1"/>
       <c r="U588" s="5"/>
     </row>
-    <row r="589" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="38"/>
       <c r="B589" s="139" t="s">
         <v>5</v>
@@ -31151,7 +31148,7 @@
       <c r="T589" s="1"/>
       <c r="U589" s="5"/>
     </row>
-    <row r="590" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="38"/>
       <c r="B590" s="239" t="s">
         <v>462</v>
@@ -31178,7 +31175,7 @@
       <c r="T590" s="1"/>
       <c r="U590" s="5"/>
     </row>
-    <row r="591" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="139"/>
       <c r="B591" s="139"/>
       <c r="C591" s="15"/>
@@ -31203,7 +31200,7 @@
       <c r="T591" s="1"/>
       <c r="U591" s="1"/>
     </row>
-    <row r="592" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="38" t="s">
         <v>463</v>
       </c>
@@ -31232,7 +31229,7 @@
       <c r="T592" s="1"/>
       <c r="U592" s="5"/>
     </row>
-    <row r="593" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="38"/>
       <c r="B593" s="139" t="s">
         <v>34</v>
@@ -31259,7 +31256,7 @@
       <c r="T593" s="1"/>
       <c r="U593" s="5"/>
     </row>
-    <row r="594" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="38"/>
       <c r="B594" s="38" t="s">
         <v>465</v>
@@ -31286,7 +31283,7 @@
       <c r="T594" s="1"/>
       <c r="U594" s="5"/>
     </row>
-    <row r="595" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="139"/>
       <c r="B595" s="139"/>
       <c r="C595" s="15"/>
@@ -31311,7 +31308,7 @@
       <c r="T595" s="1"/>
       <c r="U595" s="1"/>
     </row>
-    <row r="596" spans="1:21" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="117" t="s">
         <v>466</v>
       </c>
@@ -31349,7 +31346,7 @@
       <c r="T596" s="1"/>
       <c r="U596" s="5"/>
     </row>
-    <row r="597" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="117"/>
       <c r="B597" s="143" t="s">
         <v>5</v>
@@ -31384,7 +31381,7 @@
       <c r="T597" s="1"/>
       <c r="U597" s="5"/>
     </row>
-    <row r="598" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="117"/>
       <c r="B598" s="143" t="s">
         <v>468</v>
@@ -31419,7 +31416,7 @@
       <c r="T598" s="1"/>
       <c r="U598" s="5"/>
     </row>
-    <row r="599" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="117"/>
       <c r="B599" s="143"/>
       <c r="C599" s="157"/>
@@ -31444,7 +31441,7 @@
       <c r="T599" s="1"/>
       <c r="U599" s="1"/>
     </row>
-    <row r="600" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="38" t="s">
         <v>469</v>
       </c>
@@ -31473,7 +31470,7 @@
       <c r="T600" s="1"/>
       <c r="U600" s="5"/>
     </row>
-    <row r="601" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="38"/>
       <c r="B601" s="139" t="s">
         <v>471</v>
@@ -31500,7 +31497,7 @@
       <c r="T601" s="1"/>
       <c r="U601" s="5"/>
     </row>
-    <row r="602" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="38"/>
       <c r="B602" s="38" t="s">
         <v>472</v>
@@ -31527,7 +31524,7 @@
       <c r="T602" s="1"/>
       <c r="U602" s="5"/>
     </row>
-    <row r="603" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="38"/>
       <c r="B603" s="139" t="s">
         <v>30</v>
@@ -31554,7 +31551,7 @@
       <c r="T603" s="1"/>
       <c r="U603" s="5"/>
     </row>
-    <row r="604" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="139"/>
       <c r="B604" s="139"/>
       <c r="C604" s="15"/>
@@ -31579,7 +31576,7 @@
       <c r="T604" s="1"/>
       <c r="U604" s="1"/>
     </row>
-    <row r="605" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="38" t="s">
         <v>473</v>
       </c>
@@ -31608,7 +31605,7 @@
       <c r="T605" s="1"/>
       <c r="U605" s="5"/>
     </row>
-    <row r="606" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="38"/>
       <c r="B606" s="139" t="s">
         <v>5</v>
@@ -31635,7 +31632,7 @@
       <c r="T606" s="1"/>
       <c r="U606" s="5"/>
     </row>
-    <row r="607" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="38"/>
       <c r="B607" s="38" t="s">
         <v>475</v>
@@ -31662,7 +31659,7 @@
       <c r="T607" s="1"/>
       <c r="U607" s="5"/>
     </row>
-    <row r="608" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="139"/>
       <c r="B608" s="139"/>
       <c r="C608" s="15"/>
@@ -31687,7 +31684,7 @@
       <c r="T608" s="1"/>
       <c r="U608" s="1"/>
     </row>
-    <row r="609" spans="1:21" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="117" t="s">
         <v>476</v>
       </c>
@@ -31728,7 +31725,7 @@
       <c r="T609" s="1"/>
       <c r="U609" s="5"/>
     </row>
-    <row r="610" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="117"/>
       <c r="B610" s="143" t="s">
         <v>5</v>
@@ -31761,7 +31758,7 @@
       <c r="T610" s="1"/>
       <c r="U610" s="5"/>
     </row>
-    <row r="611" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="117"/>
       <c r="B611" s="143" t="s">
         <v>478</v>
@@ -31794,7 +31791,7 @@
       <c r="T611" s="1"/>
       <c r="U611" s="5"/>
     </row>
-    <row r="612" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="117"/>
       <c r="B612" s="143"/>
       <c r="C612" s="157"/>
@@ -31819,7 +31816,7 @@
       <c r="T612" s="1"/>
       <c r="U612" s="1"/>
     </row>
-    <row r="613" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="38" t="s">
         <v>479</v>
       </c>
@@ -31848,7 +31845,7 @@
       <c r="T613" s="1"/>
       <c r="U613" s="5"/>
     </row>
-    <row r="614" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="38"/>
       <c r="B614" s="139" t="s">
         <v>5</v>
@@ -31875,7 +31872,7 @@
       <c r="T614" s="1"/>
       <c r="U614" s="5"/>
     </row>
-    <row r="615" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="38"/>
       <c r="B615" s="239" t="s">
         <v>481</v>
@@ -31902,7 +31899,7 @@
       <c r="T615" s="1"/>
       <c r="U615" s="5"/>
     </row>
-    <row r="616" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="139"/>
       <c r="B616" s="139"/>
       <c r="C616" s="15"/>
@@ -31927,7 +31924,7 @@
       <c r="T616" s="1"/>
       <c r="U616" s="1"/>
     </row>
-    <row r="617" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="38" t="s">
         <v>482</v>
       </c>
@@ -31956,7 +31953,7 @@
       <c r="T617" s="1"/>
       <c r="U617" s="5"/>
     </row>
-    <row r="618" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="38"/>
       <c r="B618" s="139" t="s">
         <v>5</v>
@@ -31983,7 +31980,7 @@
       <c r="T618" s="1"/>
       <c r="U618" s="5"/>
     </row>
-    <row r="619" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="38"/>
       <c r="B619" s="38" t="s">
         <v>484</v>
@@ -32010,7 +32007,7 @@
       <c r="T619" s="1"/>
       <c r="U619" s="5"/>
     </row>
-    <row r="620" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="139"/>
       <c r="B620" s="139"/>
       <c r="C620" s="15"/>
@@ -32035,7 +32032,7 @@
       <c r="T620" s="1"/>
       <c r="U620" s="1"/>
     </row>
-    <row r="621" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="38" t="s">
         <v>485</v>
       </c>
@@ -32064,7 +32061,7 @@
       <c r="T621" s="1"/>
       <c r="U621" s="5"/>
     </row>
-    <row r="622" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="38"/>
       <c r="B622" s="139" t="s">
         <v>5</v>
@@ -32091,7 +32088,7 @@
       <c r="T622" s="1"/>
       <c r="U622" s="5"/>
     </row>
-    <row r="623" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="38"/>
       <c r="B623" s="38" t="s">
         <v>487</v>
@@ -32118,7 +32115,7 @@
       <c r="T623" s="1"/>
       <c r="U623" s="5"/>
     </row>
-    <row r="624" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="139"/>
       <c r="B624" s="139"/>
       <c r="C624" s="15"/>
@@ -32143,7 +32140,7 @@
       <c r="T624" s="1"/>
       <c r="U624" s="1"/>
     </row>
-    <row r="625" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="38" t="s">
         <v>488</v>
       </c>
@@ -32172,7 +32169,7 @@
       <c r="T625" s="1"/>
       <c r="U625" s="5"/>
     </row>
-    <row r="626" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="38"/>
       <c r="B626" s="139" t="s">
         <v>5</v>
@@ -32199,7 +32196,7 @@
       <c r="T626" s="1"/>
       <c r="U626" s="5"/>
     </row>
-    <row r="627" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="38"/>
       <c r="B627" s="38" t="s">
         <v>490</v>
@@ -32226,7 +32223,7 @@
       <c r="T627" s="1"/>
       <c r="U627" s="5"/>
     </row>
-    <row r="628" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="139"/>
       <c r="B628" s="139"/>
       <c r="C628" s="15"/>
@@ -32251,7 +32248,7 @@
       <c r="T628" s="1"/>
       <c r="U628" s="1"/>
     </row>
-    <row r="629" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="38" t="s">
         <v>491</v>
       </c>
@@ -32280,7 +32277,7 @@
       <c r="T629" s="1"/>
       <c r="U629" s="5"/>
     </row>
-    <row r="630" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="38"/>
       <c r="B630" s="139" t="s">
         <v>5</v>
@@ -32307,7 +32304,7 @@
       <c r="T630" s="1"/>
       <c r="U630" s="5"/>
     </row>
-    <row r="631" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="38"/>
       <c r="B631" s="38" t="s">
         <v>493</v>
@@ -32334,7 +32331,7 @@
       <c r="T631" s="1"/>
       <c r="U631" s="5"/>
     </row>
-    <row r="632" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="139"/>
       <c r="B632" s="139"/>
       <c r="C632" s="15"/>
@@ -32359,7 +32356,7 @@
       <c r="T632" s="1"/>
       <c r="U632" s="1"/>
     </row>
-    <row r="633" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="38" t="s">
         <v>494</v>
       </c>
@@ -32388,7 +32385,7 @@
       <c r="T633" s="1"/>
       <c r="U633" s="5"/>
     </row>
-    <row r="634" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="38"/>
       <c r="B634" s="139" t="s">
         <v>5</v>
@@ -32415,7 +32412,7 @@
       <c r="T634" s="1"/>
       <c r="U634" s="5"/>
     </row>
-    <row r="635" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="38"/>
       <c r="B635" s="239" t="s">
         <v>496</v>
@@ -32442,7 +32439,7 @@
       <c r="T635" s="1"/>
       <c r="U635" s="5"/>
     </row>
-    <row r="636" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="139"/>
       <c r="B636" s="139"/>
       <c r="C636" s="15"/>
@@ -32467,7 +32464,7 @@
       <c r="T636" s="1"/>
       <c r="U636" s="1"/>
     </row>
-    <row r="637" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="38" t="s">
         <v>497</v>
       </c>
@@ -32496,7 +32493,7 @@
       <c r="T637" s="1"/>
       <c r="U637" s="5"/>
     </row>
-    <row r="638" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="38"/>
       <c r="B638" s="139" t="s">
         <v>5</v>
@@ -32523,7 +32520,7 @@
       <c r="T638" s="1"/>
       <c r="U638" s="5"/>
     </row>
-    <row r="639" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="38"/>
       <c r="B639" s="38" t="s">
         <v>499</v>
@@ -32550,7 +32547,7 @@
       <c r="T639" s="1"/>
       <c r="U639" s="5"/>
     </row>
-    <row r="640" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="139"/>
       <c r="B640" s="139"/>
       <c r="C640" s="15"/>
@@ -32575,7 +32572,7 @@
       <c r="T640" s="1"/>
       <c r="U640" s="1"/>
     </row>
-    <row r="641" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="38" t="s">
         <v>500</v>
       </c>
@@ -32604,7 +32601,7 @@
       <c r="T641" s="1"/>
       <c r="U641" s="5"/>
     </row>
-    <row r="642" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="38"/>
       <c r="B642" s="139" t="s">
         <v>5</v>
@@ -32631,7 +32628,7 @@
       <c r="T642" s="1"/>
       <c r="U642" s="5"/>
     </row>
-    <row r="643" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="38"/>
       <c r="B643" s="239" t="s">
         <v>502</v>
@@ -32658,7 +32655,7 @@
       <c r="T643" s="1"/>
       <c r="U643" s="5"/>
     </row>
-    <row r="644" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="139"/>
       <c r="B644" s="139"/>
       <c r="C644" s="15"/>
@@ -32683,7 +32680,7 @@
       <c r="T644" s="1"/>
       <c r="U644" s="1"/>
     </row>
-    <row r="645" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="38" t="s">
         <v>503</v>
       </c>
@@ -32712,7 +32709,7 @@
       <c r="T645" s="1"/>
       <c r="U645" s="5"/>
     </row>
-    <row r="646" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="38"/>
       <c r="B646" s="139" t="s">
         <v>5</v>
@@ -32739,7 +32736,7 @@
       <c r="T646" s="1"/>
       <c r="U646" s="5"/>
     </row>
-    <row r="647" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="38"/>
       <c r="B647" s="239" t="s">
         <v>505</v>
@@ -32766,7 +32763,7 @@
       <c r="T647" s="1"/>
       <c r="U647" s="5"/>
     </row>
-    <row r="648" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="139"/>
       <c r="B648" s="139" t="s">
         <v>506</v>
@@ -32793,7 +32790,7 @@
       <c r="T648" s="1"/>
       <c r="U648" s="5"/>
     </row>
-    <row r="649" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="139"/>
       <c r="B649" s="139"/>
       <c r="C649" s="15"/>
@@ -32818,7 +32815,7 @@
       <c r="T649" s="1"/>
       <c r="U649" s="1"/>
     </row>
-    <row r="650" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="38" t="s">
         <v>507</v>
       </c>
@@ -32847,7 +32844,7 @@
       <c r="T650" s="1"/>
       <c r="U650" s="5"/>
     </row>
-    <row r="651" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="38"/>
       <c r="B651" s="139" t="s">
         <v>5</v>
@@ -32874,7 +32871,7 @@
       <c r="T651" s="1"/>
       <c r="U651" s="5"/>
     </row>
-    <row r="652" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="38"/>
       <c r="B652" s="239" t="s">
         <v>509</v>
@@ -32901,7 +32898,7 @@
       <c r="T652" s="1"/>
       <c r="U652" s="5"/>
     </row>
-    <row r="653" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="139"/>
       <c r="B653" s="139"/>
       <c r="C653" s="15"/>
@@ -32926,7 +32923,7 @@
       <c r="T653" s="1"/>
       <c r="U653" s="1"/>
     </row>
-    <row r="654" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="38" t="s">
         <v>510</v>
       </c>
@@ -32955,7 +32952,7 @@
       <c r="T654" s="1"/>
       <c r="U654" s="5"/>
     </row>
-    <row r="655" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="38"/>
       <c r="B655" s="139" t="s">
         <v>5</v>
@@ -32982,7 +32979,7 @@
       <c r="T655" s="1"/>
       <c r="U655" s="5"/>
     </row>
-    <row r="656" spans="1:21" ht="26.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="38"/>
       <c r="B656" s="38" t="s">
         <v>512</v>
@@ -33009,7 +33006,7 @@
       <c r="T656" s="1"/>
       <c r="U656" s="5"/>
     </row>
-    <row r="657" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="139"/>
       <c r="B657" s="139"/>
       <c r="C657" s="15"/>
@@ -33034,7 +33031,7 @@
       <c r="T657" s="1"/>
       <c r="U657" s="1"/>
     </row>
-    <row r="658" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="38" t="s">
         <v>513</v>
       </c>
@@ -33063,7 +33060,7 @@
       <c r="T658" s="1"/>
       <c r="U658" s="5"/>
     </row>
-    <row r="659" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="38"/>
       <c r="B659" s="139" t="s">
         <v>5</v>
@@ -33090,7 +33087,7 @@
       <c r="T659" s="1"/>
       <c r="U659" s="5"/>
     </row>
-    <row r="660" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="38"/>
       <c r="B660" s="38" t="s">
         <v>515</v>
@@ -33117,7 +33114,7 @@
       <c r="T660" s="1"/>
       <c r="U660" s="5"/>
     </row>
-    <row r="661" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="38"/>
       <c r="B661" s="139" t="s">
         <v>516</v>
@@ -33144,7 +33141,7 @@
       <c r="T661" s="1"/>
       <c r="U661" s="5"/>
     </row>
-    <row r="662" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="139"/>
       <c r="B662" s="139"/>
       <c r="C662" s="15"/>
@@ -33169,7 +33166,7 @@
       <c r="T662" s="1"/>
       <c r="U662" s="1"/>
     </row>
-    <row r="663" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="38" t="s">
         <v>517</v>
       </c>
@@ -33198,7 +33195,7 @@
       <c r="T663" s="1"/>
       <c r="U663" s="5"/>
     </row>
-    <row r="664" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="38"/>
       <c r="B664" s="139" t="s">
         <v>5</v>
@@ -33225,7 +33222,7 @@
       <c r="T664" s="1"/>
       <c r="U664" s="5"/>
     </row>
-    <row r="665" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="38"/>
       <c r="B665" s="239" t="s">
         <v>519</v>
@@ -33252,7 +33249,7 @@
       <c r="T665" s="1"/>
       <c r="U665" s="5"/>
     </row>
-    <row r="666" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="38"/>
       <c r="B666" s="139" t="s">
         <v>520</v>
@@ -33279,7 +33276,7 @@
       <c r="T666" s="1"/>
       <c r="U666" s="5"/>
     </row>
-    <row r="667" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="139"/>
       <c r="B667" s="139"/>
       <c r="C667" s="15"/>
@@ -33304,7 +33301,7 @@
       <c r="T667" s="1"/>
       <c r="U667" s="1"/>
     </row>
-    <row r="668" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="38" t="s">
         <v>521</v>
       </c>
@@ -33333,7 +33330,7 @@
       <c r="T668" s="1"/>
       <c r="U668" s="5"/>
     </row>
-    <row r="669" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="38"/>
       <c r="B669" s="139" t="s">
         <v>5</v>
@@ -33360,7 +33357,7 @@
       <c r="T669" s="1"/>
       <c r="U669" s="5"/>
     </row>
-    <row r="670" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="38"/>
       <c r="B670" s="239" t="s">
         <v>523</v>
@@ -33387,7 +33384,7 @@
       <c r="T670" s="1"/>
       <c r="U670" s="5"/>
     </row>
-    <row r="671" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="139"/>
       <c r="B671" s="139"/>
       <c r="C671" s="15"/>
@@ -33412,7 +33409,7 @@
       <c r="T671" s="1"/>
       <c r="U671" s="1"/>
     </row>
-    <row r="672" spans="1:21" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:21" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="117" t="s">
         <v>524</v>
       </c>
@@ -33455,7 +33452,7 @@
       <c r="T672" s="1"/>
       <c r="U672" s="5"/>
     </row>
-    <row r="673" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="117"/>
       <c r="B673" s="143" t="s">
         <v>63</v>
@@ -33486,7 +33483,7 @@
       <c r="T673" s="1"/>
       <c r="U673" s="5"/>
     </row>
-    <row r="674" spans="1:21" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="117"/>
       <c r="B674" s="143" t="s">
         <v>526</v>
@@ -33519,7 +33516,7 @@
       <c r="T674" s="1"/>
       <c r="U674" s="5"/>
     </row>
-    <row r="675" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="117"/>
       <c r="B675" s="143"/>
       <c r="C675" s="157"/>
@@ -33544,7 +33541,7 @@
       <c r="T675" s="1"/>
       <c r="U675" s="1"/>
     </row>
-    <row r="676" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="38" t="s">
         <v>527</v>
       </c>
@@ -33573,7 +33570,7 @@
       <c r="T676" s="1"/>
       <c r="U676" s="5"/>
     </row>
-    <row r="677" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="38"/>
       <c r="B677" s="139" t="s">
         <v>5</v>
@@ -33600,7 +33597,7 @@
       <c r="T677" s="1"/>
       <c r="U677" s="5"/>
     </row>
-    <row r="678" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="38"/>
       <c r="B678" s="38" t="s">
         <v>529</v>
@@ -33627,7 +33624,7 @@
       <c r="T678" s="1"/>
       <c r="U678" s="5"/>
     </row>
-    <row r="679" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="139"/>
       <c r="B679" s="139"/>
       <c r="C679" s="15"/>
@@ -33652,7 +33649,7 @@
       <c r="T679" s="1"/>
       <c r="U679" s="1"/>
     </row>
-    <row r="680" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="117" t="s">
         <v>530</v>
       </c>
@@ -33683,7 +33680,7 @@
       <c r="T680" s="1"/>
       <c r="U680" s="5"/>
     </row>
-    <row r="681" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="117"/>
       <c r="B681" s="143" t="s">
         <v>5</v>
@@ -33710,7 +33707,7 @@
       <c r="T681" s="1"/>
       <c r="U681" s="5"/>
     </row>
-    <row r="682" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="117"/>
       <c r="B682" s="143" t="s">
         <v>83</v>
@@ -33737,7 +33734,7 @@
       <c r="T682" s="1"/>
       <c r="U682" s="5"/>
     </row>
-    <row r="683" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="117"/>
       <c r="B683" s="143" t="s">
         <v>27</v>
@@ -33764,7 +33761,7 @@
       <c r="T683" s="1"/>
       <c r="U683" s="5"/>
     </row>
-    <row r="684" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="117"/>
       <c r="B684" s="143"/>
       <c r="C684" s="157"/>
@@ -33789,632 +33786,626 @@
       <c r="T684" s="1"/>
       <c r="U684" s="1"/>
     </row>
-    <row r="685" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I685" s="8"/>
       <c r="J685"/>
       <c r="K685" s="43"/>
       <c r="L685" s="63"/>
     </row>
-    <row r="686" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I686" s="8"/>
       <c r="J686"/>
       <c r="K686" s="43"/>
       <c r="L686" s="63"/>
     </row>
-    <row r="687" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I687" s="8"/>
       <c r="J687"/>
       <c r="K687" s="43"/>
       <c r="L687" s="63"/>
     </row>
-    <row r="688" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I688" s="8"/>
       <c r="J688"/>
       <c r="K688" s="43"/>
       <c r="L688" s="63"/>
     </row>
-    <row r="689" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I689" s="8"/>
       <c r="J689"/>
       <c r="K689" s="43"/>
       <c r="L689" s="63"/>
     </row>
-    <row r="690" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I690" s="8"/>
       <c r="J690"/>
       <c r="K690" s="43"/>
       <c r="L690" s="63"/>
     </row>
-    <row r="691" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I691" s="8"/>
       <c r="J691"/>
       <c r="K691" s="43"/>
       <c r="L691" s="63"/>
     </row>
-    <row r="692" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I692" s="8"/>
       <c r="J692"/>
       <c r="K692" s="43"/>
       <c r="L692" s="63"/>
     </row>
-    <row r="693" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I693" s="8"/>
       <c r="J693"/>
       <c r="K693" s="43"/>
       <c r="L693" s="63"/>
     </row>
-    <row r="694" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I694" s="8"/>
       <c r="J694"/>
       <c r="K694" s="43"/>
       <c r="L694" s="63"/>
     </row>
-    <row r="695" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I695" s="8"/>
       <c r="J695"/>
       <c r="K695" s="43"/>
       <c r="L695" s="63"/>
     </row>
-    <row r="696" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I696" s="8"/>
       <c r="J696"/>
       <c r="K696" s="43"/>
       <c r="L696" s="63"/>
     </row>
-    <row r="697" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I697" s="8"/>
       <c r="J697"/>
       <c r="K697" s="43"/>
       <c r="L697" s="63"/>
     </row>
-    <row r="698" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I698" s="8"/>
       <c r="J698"/>
       <c r="K698" s="43"/>
       <c r="L698" s="63"/>
     </row>
-    <row r="699" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I699" s="8"/>
       <c r="J699"/>
       <c r="K699" s="43"/>
       <c r="L699" s="63"/>
     </row>
-    <row r="700" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I700" s="8"/>
       <c r="J700"/>
       <c r="K700" s="43"/>
       <c r="L700" s="63"/>
     </row>
-    <row r="701" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I701" s="8"/>
       <c r="J701"/>
       <c r="K701" s="43"/>
       <c r="L701" s="63"/>
     </row>
-    <row r="702" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I702" s="8"/>
       <c r="J702"/>
       <c r="K702" s="43"/>
       <c r="L702" s="63"/>
     </row>
-    <row r="703" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I703" s="8"/>
       <c r="J703"/>
       <c r="K703" s="43"/>
       <c r="L703" s="63"/>
     </row>
-    <row r="704" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I704" s="8"/>
       <c r="J704"/>
       <c r="K704" s="43"/>
       <c r="L704" s="63"/>
     </row>
-    <row r="705" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I705" s="8"/>
       <c r="J705"/>
       <c r="K705" s="43"/>
       <c r="L705" s="63"/>
     </row>
-    <row r="706" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I706" s="8"/>
       <c r="J706"/>
       <c r="K706" s="43"/>
       <c r="L706" s="63"/>
     </row>
-    <row r="707" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I707" s="8"/>
       <c r="J707"/>
       <c r="K707" s="43"/>
       <c r="L707" s="63"/>
     </row>
-    <row r="708" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I708" s="8"/>
       <c r="J708"/>
       <c r="K708" s="43"/>
       <c r="L708" s="63"/>
     </row>
-    <row r="709" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I709" s="8"/>
       <c r="J709"/>
       <c r="K709" s="43"/>
       <c r="L709" s="63"/>
     </row>
-    <row r="710" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I710" s="8"/>
       <c r="J710"/>
       <c r="K710" s="43"/>
       <c r="L710" s="63"/>
     </row>
-    <row r="711" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I711" s="8"/>
       <c r="J711"/>
       <c r="K711" s="43"/>
       <c r="L711" s="63"/>
     </row>
-    <row r="712" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I712" s="8"/>
       <c r="J712"/>
       <c r="K712" s="43"/>
       <c r="L712" s="63"/>
     </row>
-    <row r="713" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I713" s="8"/>
       <c r="J713"/>
       <c r="K713" s="43"/>
       <c r="L713" s="63"/>
     </row>
-    <row r="714" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I714" s="8"/>
       <c r="J714"/>
       <c r="K714" s="43"/>
       <c r="L714" s="63"/>
     </row>
-    <row r="715" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I715" s="8"/>
       <c r="J715"/>
       <c r="K715" s="43"/>
       <c r="L715" s="63"/>
     </row>
-    <row r="716" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I716" s="8"/>
       <c r="J716"/>
       <c r="K716" s="43"/>
       <c r="L716" s="63"/>
     </row>
-    <row r="717" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I717" s="8"/>
       <c r="J717"/>
       <c r="K717" s="43"/>
       <c r="L717" s="63"/>
     </row>
-    <row r="718" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I718" s="8"/>
       <c r="J718"/>
       <c r="K718" s="43"/>
       <c r="L718" s="63"/>
     </row>
-    <row r="719" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I719" s="8"/>
       <c r="J719"/>
       <c r="K719" s="43"/>
       <c r="L719" s="63"/>
     </row>
-    <row r="720" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I720" s="8"/>
       <c r="J720"/>
       <c r="K720" s="43"/>
       <c r="L720" s="63"/>
     </row>
-    <row r="721" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I721" s="8"/>
       <c r="J721"/>
       <c r="K721" s="43"/>
       <c r="L721" s="63"/>
     </row>
-    <row r="722" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I722" s="8"/>
       <c r="J722"/>
       <c r="K722" s="43"/>
       <c r="L722" s="63"/>
     </row>
-    <row r="723" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I723" s="8"/>
       <c r="J723"/>
       <c r="K723" s="43"/>
       <c r="L723" s="63"/>
     </row>
-    <row r="724" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I724" s="8"/>
       <c r="J724"/>
       <c r="K724" s="43"/>
       <c r="L724" s="63"/>
     </row>
-    <row r="725" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I725" s="8"/>
       <c r="J725"/>
       <c r="K725" s="43"/>
       <c r="L725" s="63"/>
     </row>
-    <row r="726" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I726" s="8"/>
       <c r="J726"/>
       <c r="K726" s="43"/>
       <c r="L726" s="63"/>
     </row>
-    <row r="727" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I727" s="8"/>
       <c r="J727"/>
       <c r="K727" s="43"/>
       <c r="L727" s="63"/>
     </row>
-    <row r="728" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I728" s="8"/>
       <c r="J728"/>
       <c r="K728" s="43"/>
       <c r="L728" s="63"/>
     </row>
-    <row r="729" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I729" s="8"/>
       <c r="J729"/>
       <c r="K729" s="43"/>
       <c r="L729" s="63"/>
     </row>
-    <row r="730" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I730" s="8"/>
       <c r="J730"/>
       <c r="K730" s="43"/>
       <c r="L730" s="63"/>
     </row>
-    <row r="731" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I731" s="8"/>
       <c r="J731"/>
       <c r="K731" s="43"/>
       <c r="L731" s="63"/>
     </row>
-    <row r="732" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I732" s="8"/>
       <c r="J732"/>
       <c r="K732" s="43"/>
       <c r="L732" s="63"/>
     </row>
-    <row r="733" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I733" s="8"/>
       <c r="J733"/>
       <c r="K733" s="43"/>
       <c r="L733" s="63"/>
     </row>
-    <row r="734" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I734" s="8"/>
       <c r="J734"/>
       <c r="K734" s="43"/>
       <c r="L734" s="63"/>
     </row>
-    <row r="735" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I735" s="8"/>
       <c r="J735"/>
       <c r="K735" s="43"/>
       <c r="L735" s="63"/>
     </row>
-    <row r="736" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I736" s="8"/>
       <c r="J736"/>
       <c r="K736" s="43"/>
       <c r="L736" s="63"/>
     </row>
-    <row r="737" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I737" s="8"/>
       <c r="J737"/>
       <c r="K737" s="43"/>
       <c r="L737" s="63"/>
     </row>
-    <row r="738" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I738" s="8"/>
       <c r="J738"/>
       <c r="K738" s="43"/>
       <c r="L738" s="63"/>
     </row>
-    <row r="739" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I739" s="8"/>
       <c r="J739"/>
       <c r="K739" s="43"/>
       <c r="L739" s="63"/>
     </row>
-    <row r="740" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I740" s="8"/>
       <c r="J740"/>
       <c r="K740" s="43"/>
       <c r="L740" s="63"/>
     </row>
-    <row r="741" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I741" s="8"/>
       <c r="J741"/>
       <c r="K741" s="43"/>
       <c r="L741" s="63"/>
     </row>
-    <row r="742" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I742" s="8"/>
       <c r="J742"/>
       <c r="K742" s="43"/>
       <c r="L742" s="63"/>
     </row>
-    <row r="743" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I743" s="8"/>
       <c r="J743"/>
       <c r="K743" s="43"/>
       <c r="L743" s="63"/>
     </row>
-    <row r="744" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I744" s="8"/>
       <c r="J744"/>
       <c r="K744" s="43"/>
       <c r="L744" s="63"/>
     </row>
-    <row r="745" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I745" s="8"/>
       <c r="J745"/>
       <c r="K745" s="43"/>
       <c r="L745" s="63"/>
     </row>
-    <row r="746" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I746" s="8"/>
       <c r="J746"/>
       <c r="K746" s="43"/>
       <c r="L746" s="63"/>
     </row>
-    <row r="747" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I747" s="8"/>
       <c r="J747"/>
       <c r="K747" s="43"/>
       <c r="L747" s="63"/>
     </row>
-    <row r="748" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I748" s="8"/>
       <c r="J748"/>
       <c r="K748" s="43"/>
       <c r="L748" s="63"/>
     </row>
-    <row r="749" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I749" s="8"/>
       <c r="J749"/>
       <c r="K749" s="43"/>
       <c r="L749" s="63"/>
     </row>
-    <row r="750" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I750" s="8"/>
       <c r="J750"/>
       <c r="K750" s="43"/>
       <c r="L750" s="63"/>
     </row>
-    <row r="751" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I751" s="8"/>
       <c r="J751"/>
       <c r="K751" s="43"/>
       <c r="L751" s="63"/>
     </row>
-    <row r="752" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I752" s="8"/>
       <c r="J752"/>
       <c r="K752" s="43"/>
       <c r="L752" s="63"/>
     </row>
-    <row r="753" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I753" s="8"/>
       <c r="J753"/>
       <c r="K753" s="43"/>
       <c r="L753" s="63"/>
     </row>
-    <row r="754" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I754" s="8"/>
       <c r="J754"/>
       <c r="K754" s="43"/>
       <c r="L754" s="63"/>
     </row>
-    <row r="755" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I755" s="8"/>
       <c r="J755"/>
       <c r="K755" s="43"/>
       <c r="L755" s="63"/>
     </row>
-    <row r="756" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I756" s="8"/>
       <c r="J756"/>
       <c r="K756" s="43"/>
       <c r="L756" s="63"/>
     </row>
-    <row r="757" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I757" s="8"/>
       <c r="J757"/>
       <c r="K757" s="43"/>
       <c r="L757" s="63"/>
     </row>
-    <row r="758" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I758" s="8"/>
       <c r="J758"/>
       <c r="K758" s="43"/>
       <c r="L758" s="63"/>
     </row>
-    <row r="759" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I759" s="8"/>
       <c r="J759"/>
       <c r="K759" s="43"/>
       <c r="L759" s="63"/>
     </row>
-    <row r="760" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I760" s="8"/>
       <c r="J760"/>
       <c r="K760" s="43"/>
       <c r="L760" s="63"/>
     </row>
-    <row r="761" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I761" s="8"/>
       <c r="J761"/>
       <c r="K761" s="43"/>
       <c r="L761" s="63"/>
     </row>
-    <row r="762" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I762" s="8"/>
       <c r="J762"/>
       <c r="K762" s="43"/>
       <c r="L762" s="63"/>
     </row>
-    <row r="763" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I763" s="8"/>
       <c r="J763"/>
       <c r="K763" s="43"/>
       <c r="L763" s="63"/>
     </row>
-    <row r="764" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I764" s="8"/>
       <c r="J764"/>
       <c r="K764" s="43"/>
       <c r="L764" s="63"/>
     </row>
-    <row r="765" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I765" s="8"/>
       <c r="J765"/>
       <c r="K765" s="43"/>
       <c r="L765" s="63"/>
     </row>
-    <row r="766" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I766" s="8"/>
       <c r="J766"/>
       <c r="K766" s="43"/>
       <c r="L766" s="63"/>
     </row>
-    <row r="767" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I767" s="8"/>
       <c r="J767"/>
       <c r="K767" s="43"/>
       <c r="L767" s="63"/>
     </row>
-    <row r="768" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I768" s="8"/>
       <c r="J768"/>
       <c r="K768" s="43"/>
       <c r="L768" s="63"/>
     </row>
-    <row r="769" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I769" s="8"/>
       <c r="J769"/>
       <c r="K769" s="43"/>
       <c r="L769" s="63"/>
     </row>
-    <row r="770" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I770" s="8"/>
       <c r="J770"/>
       <c r="K770" s="43"/>
       <c r="L770" s="63"/>
     </row>
-    <row r="771" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I771" s="8"/>
       <c r="J771"/>
       <c r="K771" s="43"/>
       <c r="L771" s="63"/>
     </row>
-    <row r="772" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I772" s="8"/>
       <c r="J772"/>
       <c r="K772" s="43"/>
       <c r="L772" s="63"/>
     </row>
-    <row r="773" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I773" s="8"/>
       <c r="J773"/>
       <c r="K773" s="43"/>
       <c r="L773" s="63"/>
     </row>
-    <row r="774" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I774" s="8"/>
       <c r="J774"/>
       <c r="K774" s="43"/>
       <c r="L774" s="63"/>
     </row>
-    <row r="775" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I775" s="8"/>
       <c r="J775"/>
       <c r="K775" s="43"/>
       <c r="L775" s="63"/>
     </row>
-    <row r="776" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I776" s="8"/>
       <c r="J776"/>
       <c r="K776" s="43"/>
       <c r="L776" s="63"/>
     </row>
-    <row r="777" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I777" s="8"/>
       <c r="J777"/>
       <c r="K777" s="43"/>
       <c r="L777" s="63"/>
     </row>
-    <row r="778" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I778" s="8"/>
       <c r="J778"/>
       <c r="K778" s="43"/>
       <c r="L778" s="63"/>
     </row>
-    <row r="779" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I779" s="8"/>
       <c r="J779"/>
       <c r="K779" s="43"/>
       <c r="L779" s="63"/>
     </row>
-    <row r="780" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I780" s="8"/>
       <c r="J780"/>
       <c r="K780" s="43"/>
       <c r="L780" s="63"/>
     </row>
-    <row r="781" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I781" s="8"/>
       <c r="J781"/>
       <c r="K781" s="43"/>
       <c r="L781" s="63"/>
     </row>
-    <row r="782" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I782" s="8"/>
       <c r="J782"/>
       <c r="K782" s="43"/>
       <c r="L782" s="63"/>
     </row>
-    <row r="783" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I783" s="8"/>
       <c r="J783"/>
       <c r="K783" s="43"/>
       <c r="L783" s="63"/>
     </row>
-    <row r="784" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I784" s="8"/>
       <c r="J784"/>
       <c r="K784" s="43"/>
       <c r="L784" s="63"/>
     </row>
-    <row r="785" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I785" s="8"/>
       <c r="J785"/>
       <c r="K785" s="43"/>
       <c r="L785" s="63"/>
     </row>
-    <row r="786" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I786" s="8"/>
       <c r="J786"/>
       <c r="K786" s="43"/>
       <c r="L786" s="63"/>
     </row>
-    <row r="787" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I787" s="8"/>
       <c r="J787"/>
       <c r="K787" s="43"/>
       <c r="L787" s="63"/>
     </row>
   </sheetData>
-  <autoFilter ref="K1:L787">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CPHR"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="K1:L787"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L48 L90:L684">
       <formula1>"OK,small refinement,other problem,too coarse"</formula1>
